--- a/Datos/Raw/grupo_edad_altura_excel.xlsx
+++ b/Datos/Raw/grupo_edad_altura_excel.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/795fdf3ed47e8380/Trabajo/Academia/Anahuac/Cursos/Analisis_datos_I/R_ejercicios/Datos/Raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="349" documentId="13_ncr:1_{0EAC5EE9-CFCC-3641-AA7D-7120F92E1C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EF05316-F907-4AD7-800E-6B3F0043A9F6}"/>
+  <xr:revisionPtr revIDLastSave="472" documentId="13_ncr:1_{0EAC5EE9-CFCC-3641-AA7D-7120F92E1C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7094B1A-2D8F-45D1-B264-F67870D1112B}"/>
   <bookViews>
-    <workbookView xWindow="31425" yWindow="1095" windowWidth="22770" windowHeight="17970" activeTab="7" xr2:uid="{1B651967-EA38-4532-9886-F809CFA26B0F}"/>
+    <workbookView xWindow="27405" yWindow="420" windowWidth="22770" windowHeight="17340" xr2:uid="{1B651967-EA38-4532-9886-F809CFA26B0F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Altura" sheetId="1" r:id="rId1"/>
+    <sheet name="Posicion" sheetId="1" r:id="rId1"/>
     <sheet name="Edad" sheetId="2" r:id="rId2"/>
-    <sheet name="Moda" sheetId="4" r:id="rId3"/>
-    <sheet name="Mediana" sheetId="3" r:id="rId4"/>
+    <sheet name="Mediana" sheetId="3" r:id="rId3"/>
+    <sheet name="Moda" sheetId="4" r:id="rId4"/>
     <sheet name="Media" sheetId="5" r:id="rId5"/>
     <sheet name="Media_ponderada" sheetId="6" r:id="rId6"/>
     <sheet name="Media_geometrica" sheetId="7" r:id="rId7"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="109">
   <si>
     <t>Nombre</t>
   </si>
@@ -587,20 +587,40 @@
     <t>H =</t>
   </si>
   <si>
-    <t>Tiempo de recorrido</t>
+    <t>Mediana (n impar)</t>
+  </si>
+  <si>
+    <t>Mediana (n par)</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Recuento</t>
+  </si>
+  <si>
+    <t>Concepto</t>
+  </si>
+  <si>
+    <t>Tiempo de recorrido
+(hr)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
     <numFmt numFmtId="169" formatCode="0.000"/>
     <numFmt numFmtId="170" formatCode="0.000%"/>
     <numFmt numFmtId="172" formatCode="0.00000000"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0000000"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -669,7 +689,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -703,12 +723,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,7 +798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -842,10 +856,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -875,8 +888,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -939,22 +951,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -967,6 +969,9 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1001,6 +1006,63 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1202,7 +1264,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="680314" cy="346570"/>
@@ -1715,15 +1777,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94296A84-70D6-4841-8188-81D6440188F2}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1:E28"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
@@ -1805,16 +1867,16 @@
       <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="36">
         <v>1</v>
       </c>
-      <c r="J3" s="37">
+      <c r="J3" s="36">
         <v>1.5740000000000001</v>
       </c>
-      <c r="K3" s="37">
+      <c r="K3" s="36">
         <v>10</v>
       </c>
-      <c r="L3" s="37">
+      <c r="L3" s="36">
         <v>1.5740000000000001</v>
       </c>
     </row>
@@ -1837,10 +1899,10 @@
       <c r="F4" s="2">
         <v>3</v>
       </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
       <c r="O4" s="18" t="s">
         <v>41</v>
       </c>
@@ -2379,10 +2441,10 @@
         <v>25</v>
       </c>
       <c r="G26" s="11"/>
-      <c r="I26" s="37">
+      <c r="I26" s="36">
         <v>9</v>
       </c>
-      <c r="J26" s="38">
+      <c r="J26" s="37">
         <v>1.8</v>
       </c>
       <c r="L26">
@@ -2409,8 +2471,8 @@
         <v>26</v>
       </c>
       <c r="G27" s="11"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="38"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="37"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1">
@@ -2459,11 +2521,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD45052-C1E2-4A4A-9E82-BCE0932FCA6C}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2750,10 +2814,10 @@
       <c r="E14">
         <v>13</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="38">
         <f>+(19+20)/2</f>
         <v>19.5</v>
       </c>
@@ -2774,8 +2838,8 @@
       <c r="E15">
         <v>14</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
@@ -2994,12 +3058,694 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50721B54-C4AD-CC41-9C2F-5E16BAF72E49}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="87">
+        <v>19</v>
+      </c>
+      <c r="E3" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="89">
+        <v>19</v>
+      </c>
+      <c r="H3" s="90">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="30">
+        <v>18</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="31">
+        <v>18</v>
+      </c>
+      <c r="H4" s="91">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="30">
+        <v>19</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="31">
+        <v>19</v>
+      </c>
+      <c r="H5" s="91">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="30">
+        <v>19</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="31">
+        <v>19</v>
+      </c>
+      <c r="H6" s="91">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="30">
+        <v>20</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="31">
+        <v>20</v>
+      </c>
+      <c r="H7" s="91">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="30">
+        <v>18</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="31">
+        <v>18</v>
+      </c>
+      <c r="H8" s="91">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="30">
+        <v>20</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="31">
+        <v>20</v>
+      </c>
+      <c r="H9" s="92">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="30">
+        <v>18</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="31">
+        <v>18</v>
+      </c>
+      <c r="H10" s="92">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="30">
+        <v>20</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="31">
+        <v>20</v>
+      </c>
+      <c r="H11" s="92">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="30">
+        <v>21</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="31">
+        <v>21</v>
+      </c>
+      <c r="H12" s="92">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="30">
+        <v>20</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="31">
+        <v>20</v>
+      </c>
+      <c r="H13" s="92">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="30">
+        <v>18</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="31">
+        <v>18</v>
+      </c>
+      <c r="H14" s="92">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="30">
+        <v>18</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="31">
+        <v>18</v>
+      </c>
+      <c r="H15" s="92">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="30">
+        <v>21</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="31">
+        <v>21</v>
+      </c>
+      <c r="H16" s="92">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="30">
+        <v>19</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="31">
+        <v>19</v>
+      </c>
+      <c r="H17" s="92">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="30">
+        <v>20</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="31">
+        <v>20</v>
+      </c>
+      <c r="H18" s="92">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="30">
+        <v>21</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="31">
+        <v>21</v>
+      </c>
+      <c r="H19" s="92">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="30">
+        <v>22</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="31">
+        <v>22</v>
+      </c>
+      <c r="H20" s="92">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="30">
+        <v>18</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="31">
+        <v>18</v>
+      </c>
+      <c r="H21" s="92">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="30">
+        <v>19</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="31">
+        <v>19</v>
+      </c>
+      <c r="H22" s="92">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="30">
+        <v>20</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="31">
+        <v>20</v>
+      </c>
+      <c r="H23" s="92">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="30">
+        <v>20</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="31">
+        <v>20</v>
+      </c>
+      <c r="H24" s="92">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="30">
+        <v>19</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="31">
+        <v>19</v>
+      </c>
+      <c r="H25" s="92">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="30">
+        <v>28</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="31">
+        <v>28</v>
+      </c>
+      <c r="H26" s="92">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="30">
+        <v>19</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="31">
+        <v>19</v>
+      </c>
+      <c r="H27" s="92">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="88">
+        <v>23</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="31">
+        <v>23</v>
+      </c>
+      <c r="H28" s="92">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="E29" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="93">
+        <v>21</v>
+      </c>
+      <c r="H29" s="94">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="33">
+        <f>MEDIAN(C3:C28)</f>
+        <v>19.5</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="33">
+        <f>MEDIAN(G3:G29)</f>
+        <v>20</v>
+      </c>
+      <c r="H31" s="33">
+        <f>MEDIAN(H3:H29)</f>
+        <v>1.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128A430F-44B8-4346-BD95-009EC474D597}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3647,422 +4393,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50721B54-C4AD-CC41-9C2F-5E16BAF72E49}">
-  <dimension ref="A1:F27"/>
-  <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>44428.412731481483</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>19</v>
-      </c>
-      <c r="F2">
-        <f>MEDIAN(D2:D27)</f>
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>44428.411574074074</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>44428.390196759261</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>44428.38753472222</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>44428.387071759258</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>44428.387025462966</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>44428.387997685182</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>44428.391886574071</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>44428.387685185182</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>44428.412407407406</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>44428.387129629627</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>44428.387314814812</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>44428.390590277777</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>44428.387175925927</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
-        <v>44428.387199074074</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>44428.386747685188</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>44428.38721064815</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>44428.412210648145</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>44428.38685185185</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>44428.387314814812</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>44428.387118055558</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>44428.388182870367</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>44428.386886574073</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
-        <v>44428.387199074074</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
-        <v>44428.414803240739</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1">
-        <v>44428.412442129629</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014CA872-2210-C546-AE16-7299B6E99820}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6:I6"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="11" t="s">
         <v>64</v>
       </c>
@@ -4072,20 +4419,24 @@
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="F1" s="95"/>
+      <c r="H1" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="96" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -4101,8 +4452,12 @@
       <c r="E2" s="20">
         <v>1.54</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="18.75">
+      <c r="F2" s="20"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -4116,21 +4471,22 @@
         <v>18</v>
       </c>
       <c r="E3" s="20">
-        <v>2.1</v>
-      </c>
-      <c r="G3" s="27" t="s">
+        <v>1.55</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="H3" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="H3">
+      <c r="I3" s="30">
         <f>+SUM(D2:D28)</f>
         <v>538</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="43">
         <f>SUM(E2:E28)</f>
-        <v>49.129999999999988</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>45.619999999999983</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -4144,21 +4500,22 @@
         <v>19</v>
       </c>
       <c r="E4" s="20">
-        <v>2.1</v>
-      </c>
-      <c r="G4" s="18" t="s">
+        <v>1.58</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="H4" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="H4">
+      <c r="I4" s="30">
         <f>+COUNT(D2:D28)</f>
         <v>27</v>
       </c>
-      <c r="I4">
+      <c r="J4" s="30">
         <f>COUNT(E2:E28)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -4172,10 +4529,14 @@
         <v>19</v>
       </c>
       <c r="E5" s="20">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>1.58</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -4189,21 +4550,22 @@
         <v>20</v>
       </c>
       <c r="E6" s="20">
-        <v>2.1</v>
-      </c>
-      <c r="G6" s="18" t="s">
+        <v>1.6</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="H6" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="28">
-        <f>+H3/H4</f>
+      <c r="I6" s="98">
+        <f>+I3/I4</f>
         <v>19.925925925925927</v>
       </c>
-      <c r="I6" s="28">
-        <f>+I3/I4</f>
-        <v>1.8196296296296293</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="98">
+        <f>+J3/J4</f>
+        <v>1.6896296296296289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -4217,16 +4579,18 @@
         <v>18</v>
       </c>
       <c r="E7" s="20">
-        <v>2.1</v>
-      </c>
-      <c r="H7" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="43">
         <v>19.925925925925899</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="43">
         <v>1.6896296296296289</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -4239,11 +4603,15 @@
       <c r="D8">
         <v>20</v>
       </c>
-      <c r="E8" s="22">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="E8" s="20">
+        <v>1.63</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -4257,21 +4625,22 @@
         <v>18</v>
       </c>
       <c r="E9" s="20">
-        <v>2.1</v>
-      </c>
-      <c r="G9" s="18" t="s">
+        <v>1.65</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="H9" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="99">
         <f>+MIN(D2:D28)</f>
         <v>18</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="43">
         <f>+MIN(E2:E28)</f>
         <v>1.54</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -4287,19 +4656,20 @@
       <c r="E10" s="20">
         <v>1.66</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="F10" s="20"/>
+      <c r="H10" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="99">
         <f>+MAX(D2:D28)</f>
         <v>28</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="43">
         <f>+MAX(E2:E28)</f>
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -4315,8 +4685,12 @@
       <c r="E11" s="20">
         <v>1.66</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="F11" s="20"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -4332,19 +4706,20 @@
       <c r="E12" s="20">
         <v>1.67</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="F12" s="20"/>
+      <c r="H12" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="3">
-        <f>+H9-H6</f>
+      <c r="I12" s="43">
+        <f>+I9-I6</f>
         <v>-1.9259259259259274</v>
       </c>
-      <c r="I12" s="3">
-        <f>+I9-I6</f>
-        <v>-0.27962962962962923</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="43">
+        <f>+J9-J6</f>
+        <v>-0.14962962962962889</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -4360,19 +4735,20 @@
       <c r="E13" s="20">
         <v>1.68</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="F13" s="20"/>
+      <c r="H13" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="3">
-        <f>+H10-H6</f>
+      <c r="I13" s="101">
+        <f>+I10-I6</f>
         <v>8.0740740740740726</v>
       </c>
-      <c r="I13" s="3">
-        <f>+I10-I6</f>
-        <v>0.28037037037037082</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="101">
+        <f>+J10-J6</f>
+        <v>0.14037037037037114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -4388,8 +4764,9 @@
       <c r="E14" s="20">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -4402,11 +4779,12 @@
       <c r="D15">
         <v>21</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="20">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -4422,8 +4800,9 @@
       <c r="E16" s="20">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -4439,8 +4818,9 @@
       <c r="E17" s="20">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -4456,8 +4836,9 @@
       <c r="E18" s="20">
         <v>1.72</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -4473,8 +4854,9 @@
       <c r="E19" s="20">
         <v>1.72</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -4490,8 +4872,9 @@
       <c r="E20" s="20">
         <v>1.74</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -4507,8 +4890,9 @@
       <c r="E21" s="20">
         <v>1.74</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -4524,8 +4908,9 @@
       <c r="E22" s="20">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -4541,8 +4926,9 @@
       <c r="E23" s="20">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -4558,8 +4944,9 @@
       <c r="E24" s="20">
         <v>1.77</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -4575,8 +4962,9 @@
       <c r="E25" s="20">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -4592,8 +4980,9 @@
       <c r="E26" s="20">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -4609,8 +4998,9 @@
       <c r="E27" s="20">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -4623,9 +5013,10 @@
       <c r="D28">
         <v>21</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="20">
         <v>1.83</v>
       </c>
+      <c r="F28" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4637,7 +5028,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4646,7 +5037,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4656,104 +5047,104 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="33.75">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="65" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="103">
+        <v>10</v>
+      </c>
+      <c r="C4" s="72">
         <v>4</v>
       </c>
-      <c r="C4" s="44">
-        <v>10</v>
-      </c>
-      <c r="D4" s="44">
+      <c r="D4" s="72">
         <f>+B4*C4</f>
         <v>40</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="105">
+        <v>9</v>
+      </c>
+      <c r="C5" s="73">
         <v>4</v>
       </c>
-      <c r="C5" s="31">
-        <v>10</v>
-      </c>
-      <c r="D5" s="31">
+      <c r="D5" s="73">
         <f t="shared" ref="D5:D7" si="0">+B5*C5</f>
-        <v>40</v>
-      </c>
-      <c r="E5" s="31"/>
+        <v>36</v>
+      </c>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="105">
+        <v>9</v>
+      </c>
+      <c r="C6" s="73">
         <v>4</v>
       </c>
-      <c r="C6" s="31">
-        <v>10</v>
-      </c>
-      <c r="D6" s="31">
+      <c r="D6" s="73">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="E6" s="31"/>
+        <v>36</v>
+      </c>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="70">
+      <c r="B7" s="107">
+        <v>6.9</v>
+      </c>
+      <c r="C7" s="108">
         <v>18</v>
       </c>
-      <c r="C7" s="45">
-        <v>9</v>
-      </c>
-      <c r="D7" s="45">
+      <c r="D7" s="108">
         <f t="shared" si="0"/>
-        <v>162</v>
-      </c>
-      <c r="E7" s="31"/>
+        <v>124.2</v>
+      </c>
+      <c r="E7" s="30"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="B8">
-        <f>SUM(B4:B7)</f>
+      <c r="B8" s="27">
+        <f>+SUM(B4:B7)</f>
+        <v>34.9</v>
+      </c>
+      <c r="C8" s="27">
+        <f>+SUM(C4:C7)</f>
         <v>30</v>
       </c>
-      <c r="C8">
-        <f>+SUM(C4:C7)</f>
-        <v>39</v>
-      </c>
-      <c r="D8" s="32">
+      <c r="D8" s="109">
         <f>+SUM(D4:D7)</f>
-        <v>282</v>
-      </c>
-      <c r="E8" s="31"/>
+        <v>236.2</v>
+      </c>
+      <c r="E8" s="30"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="E9" s="31"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="66" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="8">
@@ -4761,12 +5152,12 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="73">
-        <f>+C8/C10</f>
-        <v>9.75</v>
+      <c r="C11" s="110">
+        <f>+B8/C10</f>
+        <v>8.7249999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="9.9499999999999993" customHeight="1">
@@ -4774,36 +5165,36 @@
       <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:5" ht="18.75">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>83</v>
       </c>
       <c r="C13" s="8">
         <f>+D8</f>
-        <v>282</v>
-      </c>
-      <c r="D13" s="74" t="s">
+        <v>236.2</v>
+      </c>
+      <c r="D13" s="68" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18.75">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="8">
-        <f>+B8</f>
+        <f>+C8</f>
         <v>30</v>
       </c>
-      <c r="D14" s="74" t="s">
+      <c r="D14" s="68" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="73">
+      <c r="C15" s="110">
         <f>+C13/C14</f>
-        <v>9.4</v>
+        <v>7.8733333333333331</v>
       </c>
     </row>
   </sheetData>
@@ -4817,7 +5208,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4832,177 +5223,177 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="45">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="42" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="47">
+      <c r="A3" s="45">
         <v>1</v>
       </c>
-      <c r="B3" s="48">
+      <c r="B3" s="46">
         <v>1000</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="47">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="48">
         <f>+B3*C3</f>
         <v>46.9</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E3" s="49">
         <f>+B3+D3</f>
         <v>1046.9000000000001</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="50">
         <f>1+C3</f>
         <v>1.0468999999999999</v>
       </c>
-      <c r="G3" s="40"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="53">
+      <c r="A4" s="51">
         <v>2</v>
       </c>
-      <c r="B4" s="54">
+      <c r="B4" s="52">
         <f>+E3</f>
         <v>1046.9000000000001</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="53">
         <v>5.5E-2</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="54">
         <f>+B4*C4</f>
         <v>57.579500000000003</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="55">
         <f>+B4+D4</f>
         <v>1104.4795000000001</v>
       </c>
-      <c r="F4" s="58">
+      <c r="F4" s="56">
         <f t="shared" ref="F4:F6" si="0">1+C4</f>
         <v>1.0549999999999999</v>
       </c>
-      <c r="G4" s="40"/>
+      <c r="G4" s="39"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="53">
+      <c r="A5" s="51">
         <v>3</v>
       </c>
-      <c r="B5" s="54">
+      <c r="B5" s="52">
         <f>+E4</f>
         <v>1104.4795000000001</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="53">
         <v>6.4199999999999993E-2</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="54">
         <f>+B5*C5</f>
         <v>70.907583900000006</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="55">
         <f>+B5+D5</f>
         <v>1175.3870839000001</v>
       </c>
-      <c r="F5" s="58">
+      <c r="F5" s="56">
         <f t="shared" si="0"/>
         <v>1.0642</v>
       </c>
-      <c r="G5" s="40"/>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="59">
+      <c r="A6" s="57">
         <v>4</v>
       </c>
-      <c r="B6" s="60">
+      <c r="B6" s="58">
         <f>+E5</f>
         <v>1175.3870839000001</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="59">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="60">
         <f>+B6*C6</f>
         <v>50.189028482530006</v>
       </c>
-      <c r="E6" s="63">
+      <c r="E6" s="61">
         <f>+B6+D6</f>
         <v>1225.57611238253</v>
       </c>
-      <c r="F6" s="64">
+      <c r="F6" s="62">
         <f t="shared" si="0"/>
         <v>1.0427</v>
       </c>
-      <c r="G6" s="40"/>
+      <c r="G6" s="39"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="C8" s="46"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="40"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="39"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="34">
         <v>1000</v>
       </c>
-      <c r="C10" s="42"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="35"/>
+      <c r="E10" s="111"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
         <v>2</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="42"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="35"/>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="42"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="35"/>
+      <c r="E12" s="34"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
         <v>4</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="42"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="35"/>
+      <c r="E13" s="34"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="E14" s="36"/>
+      <c r="E14" s="35"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="36"/>
+      <c r="B15" s="35"/>
       <c r="D15" s="3"/>
     </row>
   </sheetData>
@@ -5013,137 +5404,135 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B682753-6962-4871-9D9A-D4D9AA98E97D}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="84" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30">
-      <c r="A2" s="80" t="s">
+    <row r="2" spans="1:4" ht="45">
+      <c r="A2" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="82" t="s">
-        <v>102</v>
+      <c r="D2" s="77" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="83">
+      <c r="B3" s="78">
         <v>90</v>
       </c>
-      <c r="C3" s="84">
+      <c r="C3" s="79">
         <f>1/B3</f>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="D3" s="85"/>
+      <c r="D3" s="80"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="78">
+      <c r="B4" s="73">
         <v>70</v>
       </c>
-      <c r="C4" s="79">
+      <c r="C4" s="74">
         <f t="shared" ref="C4:C7" si="0">1/B4</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="D4" s="56"/>
+      <c r="D4" s="54"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="78">
+      <c r="B5" s="73">
         <v>45</v>
       </c>
-      <c r="C5" s="79">
+      <c r="C5" s="74">
         <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="D5" s="56"/>
+      <c r="D5" s="54"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="78">
+      <c r="B6" s="73">
         <v>40</v>
       </c>
-      <c r="C6" s="79">
+      <c r="C6" s="74">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D6" s="56"/>
+      <c r="D6" s="54"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="86">
+      <c r="B7" s="81">
         <v>50</v>
       </c>
-      <c r="C7" s="87">
+      <c r="C7" s="82">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="D7" s="88"/>
+      <c r="D7" s="83"/>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9" s="72" t="s">
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="41"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="39"/>
-      <c r="C11" s="75">
-        <f>+SUM(C3:C7)</f>
-        <v>9.2619047619047615E-2</v>
-      </c>
+      <c r="C10" s="40"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75">
-      <c r="B14" s="76" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="69"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="B15" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="77">
-        <f>5/C11</f>
-        <v>53.984575835475582</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="C16" s="3"/>
+      <c r="C15" s="71"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Datos/Raw/grupo_edad_altura_excel.xlsx
+++ b/Datos/Raw/grupo_edad_altura_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/795fdf3ed47e8380/Trabajo/Academia/Anahuac/Cursos/Analisis_datos_I/R_ejercicios/Datos/Raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="472" documentId="13_ncr:1_{0EAC5EE9-CFCC-3641-AA7D-7120F92E1C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7094B1A-2D8F-45D1-B264-F67870D1112B}"/>
+  <xr:revisionPtr revIDLastSave="631" documentId="13_ncr:1_{0EAC5EE9-CFCC-3641-AA7D-7120F92E1C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3991B577-A813-864A-93A9-68EA4799C2E8}"/>
   <bookViews>
-    <workbookView xWindow="27405" yWindow="420" windowWidth="22770" windowHeight="17340" xr2:uid="{1B651967-EA38-4532-9886-F809CFA26B0F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="7" xr2:uid="{1B651967-EA38-4532-9886-F809CFA26B0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Posicion" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="113">
   <si>
     <t>Nombre</t>
   </si>
@@ -593,20 +593,32 @@
     <t>Mediana (n par)</t>
   </si>
   <si>
-    <t>Promedio</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Recuento</t>
-  </si>
-  <si>
     <t>Concepto</t>
   </si>
   <si>
     <t>Tiempo de recorrido
 (hr)</t>
+  </si>
+  <si>
+    <t>Media geométrica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 / x </t>
+  </si>
+  <si>
+    <t>Cuando X =&gt; 0</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>1/x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t = </t>
+  </si>
+  <si>
+    <t>Velocidad promedio</t>
   </si>
 </sst>
 </file>
@@ -615,14 +627,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.000%"/>
-    <numFmt numFmtId="172" formatCode="0.00000000"/>
-    <numFmt numFmtId="177" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.00000000"/>
+    <numFmt numFmtId="177" formatCode="0.0000%"/>
+    <numFmt numFmtId="178" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,7 +701,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -726,8 +738,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -793,12 +811,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -873,23 +900,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -905,7 +925,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -923,7 +943,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -938,10 +958,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -960,9 +977,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -975,7 +989,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -990,7 +1004,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -999,7 +1013,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1062,7 +1076,46 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1091,8 +1144,8 @@
       <xdr:rowOff>216236</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="383674" cy="256674"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -1186,7 +1239,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -1268,8 +1321,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="680314" cy="346570"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -1311,6 +1364,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1413,7 +1467,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -1777,20 +1831,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94296A84-70D6-4841-8188-81D6440188F2}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1:E28"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30">
+    <row r="1" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
@@ -1828,7 +1882,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44428.412731481483</v>
       </c>
@@ -1848,7 +1902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44428.411574074074</v>
       </c>
@@ -1867,20 +1921,20 @@
       <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="106">
         <v>1</v>
       </c>
-      <c r="J3" s="36">
+      <c r="J3" s="106">
         <v>1.5740000000000001</v>
       </c>
-      <c r="K3" s="36">
+      <c r="K3" s="106">
         <v>10</v>
       </c>
-      <c r="L3" s="36">
+      <c r="L3" s="106">
         <v>1.5740000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44428.390196759261</v>
       </c>
@@ -1899,10 +1953,10 @@
       <c r="F4" s="2">
         <v>3</v>
       </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
       <c r="O4" s="18" t="s">
         <v>41</v>
       </c>
@@ -1910,7 +1964,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44428.38753472222</v>
       </c>
@@ -1938,7 +1992,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44428.387071759258</v>
       </c>
@@ -1968,7 +2022,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44428.387025462966</v>
       </c>
@@ -1995,7 +2049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44428.387997685182</v>
       </c>
@@ -2022,7 +2076,7 @@
         <v>1.5828571428571425</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44428.391886574071</v>
       </c>
@@ -2043,7 +2097,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44428.387685185182</v>
       </c>
@@ -2065,7 +2119,7 @@
       <c r="G10" s="14"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44428.412407407406</v>
       </c>
@@ -2087,7 +2141,7 @@
       <c r="G11" s="14"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44428.387129629627</v>
       </c>
@@ -2109,7 +2163,7 @@
       <c r="G12" s="14"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44428.387314814812</v>
       </c>
@@ -2130,7 +2184,7 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44428.390590277777</v>
       </c>
@@ -2151,7 +2205,7 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44428.387175925927</v>
       </c>
@@ -2198,7 +2252,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44428.387199074074</v>
       </c>
@@ -2219,7 +2273,7 @@
       </c>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44428.386747685188</v>
       </c>
@@ -2240,7 +2294,7 @@
       </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44428.38721064815</v>
       </c>
@@ -2261,7 +2315,7 @@
       </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44428.412210648145</v>
       </c>
@@ -2282,7 +2336,7 @@
       </c>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44428.38685185185</v>
       </c>
@@ -2303,7 +2357,7 @@
       </c>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44428.387314814812</v>
       </c>
@@ -2324,7 +2378,7 @@
       </c>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44428.387118055558</v>
       </c>
@@ -2358,7 +2412,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44428.388182870367</v>
       </c>
@@ -2379,7 +2433,7 @@
       </c>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44428.386886574073</v>
       </c>
@@ -2400,7 +2454,7 @@
       </c>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44428.387199074074</v>
       </c>
@@ -2421,7 +2475,7 @@
       </c>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44428.414803240739</v>
       </c>
@@ -2441,17 +2495,17 @@
         <v>25</v>
       </c>
       <c r="G26" s="11"/>
-      <c r="I26" s="36">
+      <c r="I26" s="106">
         <v>9</v>
       </c>
-      <c r="J26" s="37">
+      <c r="J26" s="107">
         <v>1.8</v>
       </c>
       <c r="L26">
         <v>25.2</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44428.412442129629</v>
       </c>
@@ -2471,10 +2525,10 @@
         <v>26</v>
       </c>
       <c r="G27" s="11"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="37"/>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="I27" s="106"/>
+      <c r="J27" s="107"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44428.387476851851</v>
       </c>
@@ -2525,12 +2579,12 @@
       <selection activeCell="G14" sqref="G14:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
@@ -2562,7 +2616,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44428.411574074074</v>
       </c>
@@ -2589,7 +2643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44428.387025462966</v>
       </c>
@@ -2607,7 +2661,7 @@
       </c>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44428.391886574071</v>
       </c>
@@ -2631,7 +2685,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44428.387314814812</v>
       </c>
@@ -2655,7 +2709,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44428.390590277777</v>
       </c>
@@ -2679,7 +2733,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44428.38685185185</v>
       </c>
@@ -2696,7 +2750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44428.412731481483</v>
       </c>
@@ -2713,7 +2767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44428.390196759261</v>
       </c>
@@ -2730,7 +2784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44428.38753472222</v>
       </c>
@@ -2747,7 +2801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44428.387199074074</v>
       </c>
@@ -2764,7 +2818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44428.387314814812</v>
       </c>
@@ -2781,7 +2835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44428.386886574073</v>
       </c>
@@ -2798,7 +2852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44428.414803240739</v>
       </c>
@@ -2814,15 +2868,15 @@
       <c r="E14">
         <v>13</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="108">
         <f>+(19+20)/2</f>
         <v>19.5</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44428.387071759258</v>
       </c>
@@ -2838,10 +2892,10 @@
       <c r="E15">
         <v>14</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44428.387997685182</v>
       </c>
@@ -2858,7 +2912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44428.387685185182</v>
       </c>
@@ -2875,7 +2929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44428.387129629627</v>
       </c>
@@ -2892,7 +2946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44428.386747685188</v>
       </c>
@@ -2909,7 +2963,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44428.387118055558</v>
       </c>
@@ -2926,7 +2980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44428.388182870367</v>
       </c>
@@ -2943,7 +2997,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44428.412407407406</v>
       </c>
@@ -2960,7 +3014,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44428.387175925927</v>
       </c>
@@ -2977,7 +3031,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44428.38721064815</v>
       </c>
@@ -2994,7 +3048,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44428.412210648145</v>
       </c>
@@ -3011,7 +3065,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44428.412442129629</v>
       </c>
@@ -3028,7 +3082,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44428.387199074074</v>
       </c>
@@ -3066,12 +3120,12 @@
       <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>103</v>
       </c>
@@ -3079,53 +3133,53 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="85" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="85" t="s">
+      <c r="E2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="86" t="s">
+      <c r="G2" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="81" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="87" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="87" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="87">
+      <c r="B3" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="82">
         <v>19</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="89">
+      <c r="F3" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="84">
         <v>19</v>
       </c>
-      <c r="H3" s="90">
+      <c r="H3" s="85">
         <v>1.54</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
         <v>13</v>
       </c>
@@ -3144,11 +3198,11 @@
       <c r="G4" s="31">
         <v>18</v>
       </c>
-      <c r="H4" s="91">
+      <c r="H4" s="86">
         <v>1.55</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="30" t="s">
         <v>10</v>
       </c>
@@ -3167,11 +3221,11 @@
       <c r="G5" s="31">
         <v>19</v>
       </c>
-      <c r="H5" s="91">
+      <c r="H5" s="86">
         <v>1.58</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
         <v>15</v>
       </c>
@@ -3190,11 +3244,11 @@
       <c r="G6" s="31">
         <v>19</v>
       </c>
-      <c r="H6" s="91">
+      <c r="H6" s="86">
         <v>1.58</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
         <v>4</v>
       </c>
@@ -3213,11 +3267,11 @@
       <c r="G7" s="31">
         <v>20</v>
       </c>
-      <c r="H7" s="91">
+      <c r="H7" s="86">
         <v>1.6</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
         <v>16</v>
       </c>
@@ -3236,11 +3290,11 @@
       <c r="G8" s="31">
         <v>18</v>
       </c>
-      <c r="H8" s="91">
+      <c r="H8" s="86">
         <v>1.6</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="30" t="s">
         <v>12</v>
       </c>
@@ -3259,11 +3313,11 @@
       <c r="G9" s="31">
         <v>20</v>
       </c>
-      <c r="H9" s="92">
+      <c r="H9" s="87">
         <v>1.63</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
         <v>11</v>
       </c>
@@ -3282,11 +3336,11 @@
       <c r="G10" s="31">
         <v>18</v>
       </c>
-      <c r="H10" s="92">
+      <c r="H10" s="87">
         <v>1.65</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="30" t="s">
         <v>14</v>
       </c>
@@ -3305,11 +3359,11 @@
       <c r="G11" s="31">
         <v>20</v>
       </c>
-      <c r="H11" s="92">
+      <c r="H11" s="87">
         <v>1.66</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="30" t="s">
         <v>33</v>
       </c>
@@ -3328,11 +3382,11 @@
       <c r="G12" s="31">
         <v>21</v>
       </c>
-      <c r="H12" s="92">
+      <c r="H12" s="87">
         <v>1.66</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="30" t="s">
         <v>23</v>
       </c>
@@ -3351,11 +3405,11 @@
       <c r="G13" s="31">
         <v>20</v>
       </c>
-      <c r="H13" s="92">
+      <c r="H13" s="87">
         <v>1.67</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
         <v>20</v>
       </c>
@@ -3374,11 +3428,11 @@
       <c r="G14" s="31">
         <v>18</v>
       </c>
-      <c r="H14" s="92">
+      <c r="H14" s="87">
         <v>1.68</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="30" t="s">
         <v>21</v>
       </c>
@@ -3397,11 +3451,11 @@
       <c r="G15" s="31">
         <v>18</v>
       </c>
-      <c r="H15" s="92">
+      <c r="H15" s="87">
         <v>1.7</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="30" t="s">
         <v>22</v>
       </c>
@@ -3420,11 +3474,11 @@
       <c r="G16" s="31">
         <v>21</v>
       </c>
-      <c r="H16" s="92">
+      <c r="H16" s="87">
         <v>1.7</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
         <v>26</v>
       </c>
@@ -3443,11 +3497,11 @@
       <c r="G17" s="31">
         <v>19</v>
       </c>
-      <c r="H17" s="92">
+      <c r="H17" s="87">
         <v>1.7</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="30" t="s">
         <v>31</v>
       </c>
@@ -3466,11 +3520,11 @@
       <c r="G18" s="31">
         <v>20</v>
       </c>
-      <c r="H18" s="92">
+      <c r="H18" s="87">
         <v>1.7</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="30" t="s">
         <v>24</v>
       </c>
@@ -3489,11 +3543,11 @@
       <c r="G19" s="31">
         <v>21</v>
       </c>
-      <c r="H19" s="92">
+      <c r="H19" s="87">
         <v>1.72</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="30" t="s">
         <v>32</v>
       </c>
@@ -3512,11 +3566,11 @@
       <c r="G20" s="31">
         <v>22</v>
       </c>
-      <c r="H20" s="92">
+      <c r="H20" s="87">
         <v>1.72</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="30" t="s">
         <v>18</v>
       </c>
@@ -3535,11 +3589,11 @@
       <c r="G21" s="31">
         <v>18</v>
       </c>
-      <c r="H21" s="92">
+      <c r="H21" s="87">
         <v>1.74</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="30" t="s">
         <v>25</v>
       </c>
@@ -3558,11 +3612,11 @@
       <c r="G22" s="31">
         <v>19</v>
       </c>
-      <c r="H22" s="92">
+      <c r="H22" s="87">
         <v>1.74</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="30" t="s">
         <v>17</v>
       </c>
@@ -3581,11 +3635,11 @@
       <c r="G23" s="31">
         <v>20</v>
       </c>
-      <c r="H23" s="92">
+      <c r="H23" s="87">
         <v>1.75</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="30" t="s">
         <v>7</v>
       </c>
@@ -3604,11 +3658,11 @@
       <c r="G24" s="31">
         <v>20</v>
       </c>
-      <c r="H24" s="92">
+      <c r="H24" s="87">
         <v>1.75</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="30" t="s">
         <v>28</v>
       </c>
@@ -3627,11 +3681,11 @@
       <c r="G25" s="31">
         <v>19</v>
       </c>
-      <c r="H25" s="92">
+      <c r="H25" s="87">
         <v>1.77</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="30" t="s">
         <v>19</v>
       </c>
@@ -3650,11 +3704,11 @@
       <c r="G26" s="31">
         <v>28</v>
       </c>
-      <c r="H26" s="92">
+      <c r="H26" s="87">
         <v>1.8</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="30" t="s">
         <v>27</v>
       </c>
@@ -3673,18 +3727,18 @@
       <c r="G27" s="31">
         <v>19</v>
       </c>
-      <c r="H27" s="92">
+      <c r="H27" s="87">
         <v>1.8</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="88" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="88">
+      <c r="B28" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="83">
         <v>23</v>
       </c>
       <c r="E28" s="31" t="s">
@@ -3696,25 +3750,25 @@
       <c r="G28" s="31">
         <v>23</v>
       </c>
-      <c r="H28" s="92">
+      <c r="H28" s="87">
         <v>1.8</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="E29" s="93" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E29" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="93">
+      <c r="F29" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="88">
         <v>21</v>
       </c>
-      <c r="H29" s="94">
+      <c r="H29" s="89">
         <v>1.83</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="28" t="s">
         <v>47</v>
       </c>
@@ -3748,13 +3802,13 @@
       <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45">
+    <row r="1" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>62</v>
       </c>
@@ -3780,7 +3834,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>+COUNTIF($D$2:$D$28,D2)</f>
         <v>7</v>
@@ -3820,7 +3874,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3:A28" si="0">+COUNTIF($D$2:$D$28,D3)</f>
         <v>6</v>
@@ -3841,7 +3895,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3859,7 +3913,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3877,7 +3931,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3895,7 +3949,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3920,7 +3974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3945,7 +3999,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3963,7 +4017,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3987,7 +4041,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4012,7 +4066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4037,7 +4091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4062,7 +4116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4087,7 +4141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4112,7 +4166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4137,7 +4191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4162,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4187,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4212,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4237,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4262,7 +4316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4280,7 +4334,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4298,7 +4352,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4316,7 +4370,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4334,7 +4388,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4352,7 +4406,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4370,7 +4424,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4402,14 +4456,14 @@
       <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>64</v>
       </c>
@@ -4419,24 +4473,24 @@
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="95"/>
-      <c r="H1" s="96" t="s">
-        <v>107</v>
-      </c>
-      <c r="I1" s="96" t="s">
+      <c r="F1" s="90"/>
+      <c r="H1" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="96" t="s">
+      <c r="J1" s="91" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -4453,11 +4507,11 @@
         <v>1.54</v>
       </c>
       <c r="F2" s="20"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.75">
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+    </row>
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -4474,19 +4528,19 @@
         <v>1.55</v>
       </c>
       <c r="F3" s="20"/>
-      <c r="H3" s="97" t="s">
+      <c r="H3" s="92" t="s">
         <v>63</v>
       </c>
       <c r="I3" s="30">
         <f>+SUM(D2:D28)</f>
         <v>538</v>
       </c>
-      <c r="J3" s="43">
+      <c r="J3" s="40">
         <f>SUM(E2:E28)</f>
         <v>45.619999999999983</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -4515,7 +4569,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -4536,7 +4590,7 @@
       <c r="I5" s="30"/>
       <c r="J5" s="30"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -4556,16 +4610,16 @@
       <c r="H6" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="98">
+      <c r="I6" s="93">
         <f>+I3/I4</f>
         <v>19.925925925925927</v>
       </c>
-      <c r="J6" s="98">
+      <c r="J6" s="93">
         <f>+J3/J4</f>
         <v>1.6896296296296289</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -4583,14 +4637,14 @@
       </c>
       <c r="F7" s="20"/>
       <c r="H7" s="30"/>
-      <c r="I7" s="43">
+      <c r="I7" s="40">
         <v>19.925925925925899</v>
       </c>
-      <c r="J7" s="43">
+      <c r="J7" s="40">
         <v>1.6896296296296289</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -4611,7 +4665,7 @@
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -4631,16 +4685,16 @@
       <c r="H9" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="99">
+      <c r="I9" s="94">
         <f>+MIN(D2:D28)</f>
         <v>18</v>
       </c>
-      <c r="J9" s="43">
+      <c r="J9" s="40">
         <f>+MIN(E2:E28)</f>
         <v>1.54</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -4660,16 +4714,16 @@
       <c r="H10" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="I10" s="99">
+      <c r="I10" s="94">
         <f>+MAX(D2:D28)</f>
         <v>28</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="40">
         <f>+MAX(E2:E28)</f>
         <v>1.83</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -4690,7 +4744,7 @@
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -4710,16 +4764,16 @@
       <c r="H12" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="43">
+      <c r="I12" s="40">
         <f>+I9-I6</f>
         <v>-1.9259259259259274</v>
       </c>
-      <c r="J12" s="43">
+      <c r="J12" s="40">
         <f>+J9-J6</f>
         <v>-0.14962962962962889</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -4736,19 +4790,19 @@
         <v>1.68</v>
       </c>
       <c r="F13" s="20"/>
-      <c r="H13" s="100" t="s">
+      <c r="H13" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="101">
+      <c r="I13" s="96">
         <f>+I10-I6</f>
         <v>8.0740740740740726</v>
       </c>
-      <c r="J13" s="101">
+      <c r="J13" s="96">
         <f>+J10-J6</f>
         <v>0.14037037037037114</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -4766,7 +4820,7 @@
       </c>
       <c r="F14" s="20"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -4784,7 +4838,7 @@
       </c>
       <c r="F15" s="22"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -4802,7 +4856,7 @@
       </c>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -4820,7 +4874,7 @@
       </c>
       <c r="F17" s="20"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -4838,7 +4892,7 @@
       </c>
       <c r="F18" s="20"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -4856,7 +4910,7 @@
       </c>
       <c r="F19" s="20"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -4874,7 +4928,7 @@
       </c>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -4892,7 +4946,7 @@
       </c>
       <c r="F21" s="20"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -4910,7 +4964,7 @@
       </c>
       <c r="F22" s="20"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -4928,7 +4982,7 @@
       </c>
       <c r="F23" s="20"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -4946,7 +5000,7 @@
       </c>
       <c r="F24" s="20"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -4964,7 +5018,7 @@
       </c>
       <c r="F25" s="20"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -4982,7 +5036,7 @@
       </c>
       <c r="F26" s="20"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -5000,7 +5054,7 @@
       </c>
       <c r="F27" s="20"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -5031,99 +5085,99 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="33.75">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64" t="s">
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="61" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="102" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="103">
+      <c r="B4" s="98">
         <v>10</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="67">
         <v>4</v>
       </c>
-      <c r="D4" s="72">
+      <c r="D4" s="67">
         <f>+B4*C4</f>
         <v>40</v>
       </c>
       <c r="E4" s="30"/>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="104" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="105">
+      <c r="B5" s="100">
         <v>9</v>
       </c>
-      <c r="C5" s="73">
+      <c r="C5" s="68">
         <v>4</v>
       </c>
-      <c r="D5" s="73">
+      <c r="D5" s="68">
         <f t="shared" ref="D5:D7" si="0">+B5*C5</f>
         <v>36</v>
       </c>
       <c r="E5" s="30"/>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="104" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="105">
+      <c r="B6" s="100">
         <v>9</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="68">
         <v>4</v>
       </c>
-      <c r="D6" s="73">
+      <c r="D6" s="68">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="E6" s="30"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="106" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="107">
+      <c r="B7" s="102">
         <v>6.9</v>
       </c>
-      <c r="C7" s="108">
+      <c r="C7" s="103">
         <v>18</v>
       </c>
-      <c r="D7" s="108">
+      <c r="D7" s="103">
         <f t="shared" si="0"/>
         <v>124.2</v>
       </c>
       <c r="E7" s="30"/>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="67" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="63" t="s">
         <v>78</v>
       </c>
       <c r="B8" s="27">
@@ -5134,37 +5188,37 @@
         <f>+SUM(C4:C7)</f>
         <v>30</v>
       </c>
-      <c r="D8" s="109">
+      <c r="D8" s="104">
         <f>+SUM(D4:D7)</f>
         <v>236.2</v>
       </c>
       <c r="E8" s="30"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E9" s="30"/>
     </row>
-    <row r="10" spans="1:5">
-      <c r="B10" s="66" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="62" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="B11" s="67" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="110">
+      <c r="C11" s="105">
         <f>+B8/C10</f>
         <v>8.7249999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="9.9499999999999993" customHeight="1">
+    <row r="12" spans="1:5" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:5" ht="18.75">
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="32" t="s">
         <v>83</v>
       </c>
@@ -5172,11 +5226,11 @@
         <f>+D8</f>
         <v>236.2</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="64" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.75">
+    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="32" t="s">
         <v>84</v>
       </c>
@@ -5184,15 +5238,15 @@
         <f>+C8</f>
         <v>30</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="64" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="B15" s="67" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="110">
+      <c r="C15" s="105">
         <f>+C13/C14</f>
         <v>7.8733333333333331</v>
       </c>
@@ -5205,196 +5259,289 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7576C37-4932-6048-BC1D-0E1FB524A1A8}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="39" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="42">
         <v>1</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="43">
         <v>1000</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="44">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="D3" s="48">
+      <c r="D3" s="45">
         <f>+B3*C3</f>
         <v>46.9</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="46">
         <f>+B3+D3</f>
         <v>1046.9000000000001</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="47">
         <f>1+C3</f>
         <v>1.0468999999999999</v>
       </c>
-      <c r="G3" s="39"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="51">
+      <c r="G3" s="52"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="48">
         <v>2</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="49">
         <f>+E3</f>
         <v>1046.9000000000001</v>
       </c>
-      <c r="C4" s="53">
-        <v>5.5E-2</v>
-      </c>
-      <c r="D4" s="54">
+      <c r="C4" s="116">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="D4" s="51">
         <f>+B4*C4</f>
-        <v>57.579500000000003</v>
-      </c>
-      <c r="E4" s="55">
+        <v>-12.562800000000001</v>
+      </c>
+      <c r="E4" s="52">
         <f>+B4+D4</f>
-        <v>1104.4795000000001</v>
-      </c>
-      <c r="F4" s="56">
+        <v>1034.3372000000002</v>
+      </c>
+      <c r="F4" s="53">
         <f t="shared" ref="F4:F6" si="0">1+C4</f>
-        <v>1.0549999999999999</v>
-      </c>
-      <c r="G4" s="39"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="51">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="G4" s="52">
+        <f>+F3*F4</f>
+        <v>1.0343372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="48">
         <v>3</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5" s="49">
         <f>+E4</f>
-        <v>1104.4795000000001</v>
-      </c>
-      <c r="C5" s="53">
+        <v>1034.3372000000002</v>
+      </c>
+      <c r="C5" s="50">
         <v>6.4199999999999993E-2</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="51">
         <f>+B5*C5</f>
-        <v>70.907583900000006</v>
-      </c>
-      <c r="E5" s="55">
+        <v>66.404448240000008</v>
+      </c>
+      <c r="E5" s="52">
         <f>+B5+D5</f>
-        <v>1175.3870839000001</v>
-      </c>
-      <c r="F5" s="56">
+        <v>1100.7416482400001</v>
+      </c>
+      <c r="F5" s="53">
         <f t="shared" si="0"/>
         <v>1.0642</v>
       </c>
-      <c r="G5" s="39"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="57">
+      <c r="G5" s="52">
+        <f>+G4*F5</f>
+        <v>1.1007416482400001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="54">
         <v>4</v>
       </c>
-      <c r="B6" s="58">
+      <c r="B6" s="55">
         <f>+E5</f>
-        <v>1175.3870839000001</v>
-      </c>
-      <c r="C6" s="59">
+        <v>1100.7416482400001</v>
+      </c>
+      <c r="C6" s="56">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="57">
         <f>+B6*C6</f>
-        <v>50.189028482530006</v>
-      </c>
-      <c r="E6" s="61">
+        <v>47.001668379848006</v>
+      </c>
+      <c r="E6" s="115">
         <f>+B6+D6</f>
-        <v>1225.57611238253</v>
-      </c>
-      <c r="F6" s="62">
+        <v>1147.7433166198482</v>
+      </c>
+      <c r="F6" s="58">
         <f t="shared" si="0"/>
         <v>1.0427</v>
       </c>
-      <c r="G6" s="39"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="C8" s="44"/>
+      <c r="G6" s="112">
+        <f>+G5*F6</f>
+        <v>1.1477433166198481</v>
+      </c>
+      <c r="I6" s="3">
+        <f>+E6/B3*100-100</f>
+        <v>14.774331661984831</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C7" s="114">
+        <f>AVERAGE(C3:C6)</f>
+        <v>3.5449999999999995E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <f>I6/4</f>
+        <v>3.6935829154962079</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C8" s="41"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="39"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="F8" s="41"/>
+      <c r="G8" s="37"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G9" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" s="34">
         <v>1000</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="111"/>
+      <c r="C10" s="113">
+        <f>+H11-1</f>
+        <v>3.504967452483787E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <f>+B10*C10</f>
+        <v>35.049674524837869</v>
+      </c>
+      <c r="E10" s="34">
+        <f>+B10+D10</f>
+        <v>1035.0496745248379</v>
+      </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="34"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="B11" s="34">
+        <f>+E10</f>
+        <v>1035.0496745248379</v>
+      </c>
+      <c r="C11" s="113">
+        <f>+C10</f>
+        <v>3.504967452483787E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <f>+B11*C11</f>
+        <v>36.278154209134939</v>
+      </c>
+      <c r="E11" s="34">
+        <f>+B11+D11</f>
+        <v>1071.3278287339729</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11">
+        <f>G6^(1/4)</f>
+        <v>1.0350496745248379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="34"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="B12" s="34">
+        <f>+E11</f>
+        <v>1071.3278287339729</v>
+      </c>
+      <c r="C12" s="113">
+        <f>+C11</f>
+        <v>3.504967452483787E-2</v>
+      </c>
+      <c r="D12" s="3">
+        <f>+B12*C12</f>
+        <v>37.549691706527</v>
+      </c>
+      <c r="E12" s="34">
+        <f>+B12+D12</f>
+        <v>1108.8775204404999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="34"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="B13" s="34">
+        <f>+E12</f>
+        <v>1108.8775204404999</v>
+      </c>
+      <c r="C13" s="113">
+        <f>+C12</f>
+        <v>3.504967452483787E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <f>+B13*C13</f>
+        <v>38.865796179348777</v>
+      </c>
+      <c r="E13" s="117">
+        <f>+B13+D13</f>
+        <v>1147.7433166198487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E14" s="35"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="35"/>
-      <c r="D15" s="3"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5404,130 +5551,262 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B682753-6962-4871-9D9A-D4D9AA98E97D}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="79" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="36" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="78" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="78">
+      <c r="B3" s="73">
         <v>90</v>
       </c>
-      <c r="C3" s="79">
+      <c r="C3" s="74">
         <f>1/B3</f>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="D3" s="80"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="73" t="s">
+      <c r="D3" s="75">
+        <f>50/B3</f>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="73">
+      <c r="B4" s="68">
         <v>70</v>
       </c>
-      <c r="C4" s="74">
-        <f t="shared" ref="C4:C7" si="0">1/B4</f>
+      <c r="C4" s="69">
+        <f>1/B4</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="D4" s="54"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="73" t="s">
+      <c r="D4" s="51">
+        <f t="shared" ref="D4:D7" si="0">50/B4</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G4" s="118" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="118" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="73">
+      <c r="B5" s="68">
         <v>45</v>
       </c>
-      <c r="C5" s="74">
+      <c r="C5" s="69">
+        <f t="shared" ref="C4:C7" si="1">1/B5</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="D5" s="51">
         <f t="shared" si="0"/>
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="D5" s="54"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="73" t="s">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1</v>
+      </c>
+      <c r="H5" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="73">
+      <c r="B6" s="68">
         <v>40</v>
       </c>
-      <c r="C6" s="74">
+      <c r="C6" s="69">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D6" s="51">
         <f t="shared" si="0"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D6" s="54"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="81" t="s">
+        <v>1.25</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="119">
+        <f>1/G6</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="81">
+      <c r="B7" s="76">
         <v>50</v>
       </c>
-      <c r="C7" s="82">
+      <c r="C7" s="77">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="D7" s="78">
         <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-      <c r="D7" s="83"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="H7" s="119">
+        <f>1/G7</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D8" s="17">
+        <f>+SUM(D3:D7)</f>
+        <v>4.6309523809523814</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="G8" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="H8" s="119">
+        <f>1/G8</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="67" t="s">
+      <c r="G9" s="11">
+        <v>1E-4</v>
+      </c>
+      <c r="H9" s="119">
+        <f>1/G9</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="40"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="38"/>
-      <c r="C12" s="69"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75">
-      <c r="B15" s="70" t="s">
+      <c r="C10" s="38">
+        <v>5</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="H10" s="119">
+        <f>1/G10</f>
+        <v>999999999.99999988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G11" s="11"/>
+      <c r="H11" s="119"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="108"/>
+      <c r="C12" s="109">
+        <f>+SUM(C3:C7)</f>
+        <v>9.2619047619047615E-2</v>
+      </c>
+      <c r="H12" s="119"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="119"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14" s="11">
+        <v>100</v>
+      </c>
+      <c r="H14" s="119">
+        <f>+F14/G14</f>
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="11">
+        <f>+H14*60</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="B15" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="71"/>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="3"/>
+      <c r="C15" s="66">
+        <f>+C10/C12</f>
+        <v>53.984575835475582</v>
+      </c>
+      <c r="D15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15" s="11">
+        <v>200</v>
+      </c>
+      <c r="H15" s="119">
+        <f>+F15/G15</f>
+        <v>0.25</v>
+      </c>
+      <c r="I15" s="11">
+        <f>+H15*60</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H16" s="35"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="17">
+        <f>250/C15</f>
+        <v>4.6309523809523805</v>
+      </c>
+      <c r="H17" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Datos/Raw/grupo_edad_altura_excel.xlsx
+++ b/Datos/Raw/grupo_edad_altura_excel.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/795fdf3ed47e8380/Trabajo/Academia/Anahuac/Cursos/Analisis_datos_I/R_ejercicios/Datos/Raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="631" documentId="13_ncr:1_{0EAC5EE9-CFCC-3641-AA7D-7120F92E1C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3991B577-A813-864A-93A9-68EA4799C2E8}"/>
+  <xr:revisionPtr revIDLastSave="655" documentId="13_ncr:1_{0EAC5EE9-CFCC-3641-AA7D-7120F92E1C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F84572F-8465-B14D-9A8A-25373F19321E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="7" xr2:uid="{1B651967-EA38-4532-9886-F809CFA26B0F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="7" xr2:uid="{1B651967-EA38-4532-9886-F809CFA26B0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Posicion" sheetId="1" r:id="rId1"/>
     <sheet name="Edad" sheetId="2" r:id="rId2"/>
     <sheet name="Mediana" sheetId="3" r:id="rId3"/>
-    <sheet name="Moda" sheetId="4" r:id="rId4"/>
-    <sheet name="Media" sheetId="5" r:id="rId5"/>
-    <sheet name="Media_ponderada" sheetId="6" r:id="rId6"/>
-    <sheet name="Media_geometrica" sheetId="7" r:id="rId7"/>
-    <sheet name="Media_armonica" sheetId="8" r:id="rId8"/>
+    <sheet name="Media" sheetId="5" r:id="rId4"/>
+    <sheet name="Media_ponderada" sheetId="6" r:id="rId5"/>
+    <sheet name="Media_geometrica" sheetId="7" r:id="rId6"/>
+    <sheet name="Media_armonica" sheetId="8" r:id="rId7"/>
+    <sheet name="Tendencia_central" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,30 +40,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="107">
   <si>
     <t>Nombre</t>
   </si>
@@ -228,27 +206,6 @@
   </si>
   <si>
     <t>Posición 13.5</t>
-  </si>
-  <si>
-    <t>Moda</t>
-  </si>
-  <si>
-    <t>Edad mínima</t>
-  </si>
-  <si>
-    <t>Edad máxima</t>
-  </si>
-  <si>
-    <t>Frecuencia</t>
-  </si>
-  <si>
-    <t>Rango de edades</t>
-  </si>
-  <si>
-    <t>Función MODA.UNO</t>
-  </si>
-  <si>
-    <t>Función MODA.VARIOS</t>
   </si>
   <si>
     <t>Conteo_edad</t>
@@ -620,6 +577,9 @@
   <si>
     <t>Velocidad promedio</t>
   </si>
+  <si>
+    <t>Rango =</t>
+  </si>
 </sst>
 </file>
 
@@ -630,9 +590,9 @@
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.00000000"/>
-    <numFmt numFmtId="177" formatCode="0.0000%"/>
-    <numFmt numFmtId="178" formatCode="0.00000%"/>
+    <numFmt numFmtId="168" formatCode="0.00000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000%"/>
+    <numFmt numFmtId="170" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -701,7 +661,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -729,12 +689,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,7 +779,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -873,16 +827,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -909,7 +854,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1076,19 +1021,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1097,10 +1030,10 @@
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1115,6 +1048,18 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1921,16 +1866,16 @@
       <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="I3" s="106">
+      <c r="I3" s="111">
         <v>1</v>
       </c>
-      <c r="J3" s="106">
+      <c r="J3" s="111">
         <v>1.5740000000000001</v>
       </c>
-      <c r="K3" s="106">
+      <c r="K3" s="111">
         <v>10</v>
       </c>
-      <c r="L3" s="106">
+      <c r="L3" s="111">
         <v>1.5740000000000001</v>
       </c>
     </row>
@@ -1953,10 +1898,10 @@
       <c r="F4" s="2">
         <v>3</v>
       </c>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
       <c r="O4" s="18" t="s">
         <v>41</v>
       </c>
@@ -2495,10 +2440,10 @@
         <v>25</v>
       </c>
       <c r="G26" s="11"/>
-      <c r="I26" s="106">
+      <c r="I26" s="111">
         <v>9</v>
       </c>
-      <c r="J26" s="107">
+      <c r="J26" s="112">
         <v>1.8</v>
       </c>
       <c r="L26">
@@ -2525,8 +2470,8 @@
         <v>26</v>
       </c>
       <c r="G27" s="11"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="107"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="112"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
@@ -2868,10 +2813,10 @@
       <c r="E14">
         <v>13</v>
       </c>
-      <c r="F14" s="108" t="s">
+      <c r="F14" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="108">
+      <c r="G14" s="113">
         <f>+(19+20)/2</f>
         <v>19.5</v>
       </c>
@@ -2892,8 +2837,8 @@
       <c r="E15">
         <v>14</v>
       </c>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -3126,664 +3071,664 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>102</v>
+      <c r="A1" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="E2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="76" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="82">
+      <c r="B3" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="77">
         <v>19</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="84">
+      <c r="F3" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="79">
         <v>19</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="80">
         <v>1.54</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="30">
+      <c r="B4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="25">
         <v>18</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="31">
+      <c r="F4" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="26">
         <v>18</v>
       </c>
-      <c r="H4" s="86">
+      <c r="H4" s="81">
         <v>1.55</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="30">
+      <c r="B5" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="25">
         <v>19</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="31">
+      <c r="F5" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="26">
         <v>19</v>
       </c>
-      <c r="H5" s="86">
+      <c r="H5" s="81">
         <v>1.58</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="30">
+      <c r="B6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="25">
         <v>19</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="31">
+      <c r="F6" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="26">
         <v>19</v>
       </c>
-      <c r="H6" s="86">
+      <c r="H6" s="81">
         <v>1.58</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="30">
+      <c r="B7" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="25">
         <v>20</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="31">
+      <c r="F7" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="26">
         <v>20</v>
       </c>
-      <c r="H7" s="86">
+      <c r="H7" s="81">
         <v>1.6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="30">
+      <c r="B8" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="25">
         <v>18</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="31">
+      <c r="F8" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="26">
         <v>18</v>
       </c>
-      <c r="H8" s="86">
+      <c r="H8" s="81">
         <v>1.6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="30">
+      <c r="B9" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="25">
         <v>20</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="31">
+      <c r="F9" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="26">
         <v>20</v>
       </c>
-      <c r="H9" s="87">
+      <c r="H9" s="82">
         <v>1.63</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="30">
+      <c r="B10" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="25">
         <v>18</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="31">
+      <c r="F10" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="26">
         <v>18</v>
       </c>
-      <c r="H10" s="87">
+      <c r="H10" s="82">
         <v>1.65</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="30">
+      <c r="B11" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="25">
         <v>20</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="31">
+      <c r="F11" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="26">
         <v>20</v>
       </c>
-      <c r="H11" s="87">
+      <c r="H11" s="82">
         <v>1.66</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="30">
+      <c r="B12" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="25">
         <v>21</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="31">
+      <c r="F12" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="26">
         <v>21</v>
       </c>
-      <c r="H12" s="87">
+      <c r="H12" s="82">
         <v>1.66</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="30">
+      <c r="B13" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="25">
         <v>20</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="31">
+      <c r="F13" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="26">
         <v>20</v>
       </c>
-      <c r="H13" s="87">
+      <c r="H13" s="82">
         <v>1.67</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="30">
+      <c r="B14" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="25">
         <v>18</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="31">
+      <c r="F14" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="26">
         <v>18</v>
       </c>
-      <c r="H14" s="87">
+      <c r="H14" s="82">
         <v>1.68</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="30">
+      <c r="B15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="25">
         <v>18</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="31">
+      <c r="F15" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="26">
         <v>18</v>
       </c>
-      <c r="H15" s="87">
+      <c r="H15" s="82">
         <v>1.7</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="30">
+      <c r="B16" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="25">
         <v>21</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="31">
+      <c r="F16" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="26">
         <v>21</v>
       </c>
-      <c r="H16" s="87">
+      <c r="H16" s="82">
         <v>1.7</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="30">
+      <c r="B17" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="25">
         <v>19</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="31">
+      <c r="F17" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="26">
         <v>19</v>
       </c>
-      <c r="H17" s="87">
+      <c r="H17" s="82">
         <v>1.7</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="30">
+      <c r="B18" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="25">
         <v>20</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="31">
+      <c r="F18" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="26">
         <v>20</v>
       </c>
-      <c r="H18" s="87">
+      <c r="H18" s="82">
         <v>1.7</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="30">
+      <c r="B19" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="25">
         <v>21</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="31">
+      <c r="F19" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="26">
         <v>21</v>
       </c>
-      <c r="H19" s="87">
+      <c r="H19" s="82">
         <v>1.72</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="30">
+      <c r="B20" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="25">
         <v>22</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="31">
+      <c r="F20" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="26">
         <v>22</v>
       </c>
-      <c r="H20" s="87">
+      <c r="H20" s="82">
         <v>1.72</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="30">
+      <c r="B21" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="25">
         <v>18</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="31">
+      <c r="F21" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="26">
         <v>18</v>
       </c>
-      <c r="H21" s="87">
+      <c r="H21" s="82">
         <v>1.74</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="30">
+      <c r="B22" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="25">
         <v>19</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="31">
+      <c r="F22" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="26">
         <v>19</v>
       </c>
-      <c r="H22" s="87">
+      <c r="H22" s="82">
         <v>1.74</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="30">
+      <c r="B23" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="25">
         <v>20</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="31">
+      <c r="F23" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="26">
         <v>20</v>
       </c>
-      <c r="H23" s="87">
+      <c r="H23" s="82">
         <v>1.75</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="30">
+      <c r="B24" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="25">
         <v>20</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="31">
+      <c r="F24" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="26">
         <v>20</v>
       </c>
-      <c r="H24" s="87">
+      <c r="H24" s="82">
         <v>1.75</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="30">
+      <c r="B25" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="25">
         <v>19</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="31">
+      <c r="F25" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="26">
         <v>19</v>
       </c>
-      <c r="H25" s="87">
+      <c r="H25" s="82">
         <v>1.77</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="30">
+      <c r="B26" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="25">
         <v>28</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="31">
+      <c r="F26" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="26">
         <v>28</v>
       </c>
-      <c r="H26" s="87">
+      <c r="H26" s="82">
         <v>1.8</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="30">
+      <c r="B27" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="25">
         <v>19</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="31">
+      <c r="F27" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="26">
         <v>19</v>
       </c>
-      <c r="H27" s="87">
+      <c r="H27" s="82">
         <v>1.8</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="83" t="s">
+      <c r="A28" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="83">
+      <c r="B28" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="78">
         <v>23</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="31">
+      <c r="F28" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="26">
         <v>23</v>
       </c>
-      <c r="H28" s="87">
+      <c r="H28" s="82">
         <v>1.8</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E29" s="88" t="s">
+      <c r="E29" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="88">
+      <c r="F29" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="83">
         <v>21</v>
       </c>
-      <c r="H29" s="89">
+      <c r="H29" s="84">
         <v>1.83</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C31" s="28">
         <f>MEDIAN(C3:C28)</f>
         <v>19.5</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="33">
+      <c r="G31" s="28">
         <f>MEDIAN(G3:G29)</f>
         <v>20</v>
       </c>
-      <c r="H31" s="33">
+      <c r="H31" s="28">
         <f>MEDIAN(H3:H29)</f>
         <v>1.7</v>
       </c>
@@ -3794,660 +3739,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128A430F-44B8-4346-BD95-009EC474D597}">
-  <dimension ref="A1:L28"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <f>+COUNTIF($D$2:$D$28,D2)</f>
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>19</v>
-      </c>
-      <c r="E2" s="20">
-        <v>1.54</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="23">
-        <f>_xlfn.MODE.SNGL(D2:D28)</f>
-        <v>19</v>
-      </c>
-      <c r="I2" s="26" cm="1">
-        <f t="array" ref="I2:I3">_xlfn.MODE.MULT(D2:D28)</f>
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <f>+_xlfn.MODE.SNGL(E2:E28)</f>
-        <v>1.7</v>
-      </c>
-      <c r="L2" cm="1">
-        <f t="array" ref="L2">+_xlfn.MODE.MULT(E2:E28)</f>
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <f t="shared" ref="A3:A28" si="0">+COUNTIF($D$2:$D$28,D3)</f>
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>18</v>
-      </c>
-      <c r="E3" s="20">
-        <v>1.55</v>
-      </c>
-      <c r="I3" s="26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>19</v>
-      </c>
-      <c r="E4" s="20">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>19</v>
-      </c>
-      <c r="E5" s="20">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-      <c r="E6" s="20">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>18</v>
-      </c>
-      <c r="E7" s="20">
-        <v>1.6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7">
-        <f>MIN(D2:D28)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-      <c r="E8" s="21">
-        <v>1.63</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8">
-        <f>+MAX(D2:D28)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>18</v>
-      </c>
-      <c r="E9" s="20">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>20</v>
-      </c>
-      <c r="E10" s="20">
-        <v>1.66</v>
-      </c>
-      <c r="G10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>21</v>
-      </c>
-      <c r="E11" s="20">
-        <v>1.66</v>
-      </c>
-      <c r="G11">
-        <v>18</v>
-      </c>
-      <c r="H11">
-        <f>COUNTIF($D$2:$D$28,G11)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>20</v>
-      </c>
-      <c r="E12" s="20">
-        <v>1.67</v>
-      </c>
-      <c r="G12" s="23">
-        <v>19</v>
-      </c>
-      <c r="H12" s="23">
-        <f t="shared" ref="H12:H21" si="1">COUNTIF($D$2:$D$28,G12)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13">
-        <v>18</v>
-      </c>
-      <c r="E13" s="20">
-        <v>1.68</v>
-      </c>
-      <c r="G13" s="23">
-        <v>20</v>
-      </c>
-      <c r="H13" s="23">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <v>18</v>
-      </c>
-      <c r="E14" s="20">
-        <v>1.7</v>
-      </c>
-      <c r="G14">
-        <v>21</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15">
-        <v>21</v>
-      </c>
-      <c r="E15" s="22">
-        <v>1.7</v>
-      </c>
-      <c r="G15">
-        <v>22</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <v>19</v>
-      </c>
-      <c r="E16" s="20">
-        <v>1.7</v>
-      </c>
-      <c r="G16">
-        <v>23</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17">
-        <v>20</v>
-      </c>
-      <c r="E17" s="20">
-        <v>1.7</v>
-      </c>
-      <c r="G17">
-        <v>24</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18">
-        <v>21</v>
-      </c>
-      <c r="E18" s="20">
-        <v>1.72</v>
-      </c>
-      <c r="G18">
-        <v>25</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19">
-        <v>22</v>
-      </c>
-      <c r="E19" s="20">
-        <v>1.72</v>
-      </c>
-      <c r="G19">
-        <v>26</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20">
-        <v>18</v>
-      </c>
-      <c r="E20" s="20">
-        <v>1.74</v>
-      </c>
-      <c r="G20">
-        <v>27</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21">
-        <v>19</v>
-      </c>
-      <c r="E21" s="20">
-        <v>1.74</v>
-      </c>
-      <c r="G21">
-        <v>28</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22">
-        <v>20</v>
-      </c>
-      <c r="E22" s="20">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23">
-        <v>20</v>
-      </c>
-      <c r="E23" s="20">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24">
-        <v>19</v>
-      </c>
-      <c r="E24" s="20">
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25">
-        <v>28</v>
-      </c>
-      <c r="E25" s="20">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26">
-        <v>19</v>
-      </c>
-      <c r="E26" s="20">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27">
-        <v>23</v>
-      </c>
-      <c r="E27" s="20">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28">
-        <v>21</v>
-      </c>
-      <c r="E28" s="22">
-        <v>1.83</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014CA872-2210-C546-AE16-7299B6E99820}">
   <dimension ref="A1:J28"/>
   <sheetViews>
@@ -4465,7 +3756,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -4473,21 +3764,21 @@
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="90"/>
-      <c r="H1" s="91" t="s">
-        <v>104</v>
-      </c>
-      <c r="I1" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="91" t="s">
-        <v>67</v>
+      <c r="F1" s="85"/>
+      <c r="H1" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="86" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -4507,9 +3798,9 @@
         <v>1.54</v>
       </c>
       <c r="F2" s="20"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
@@ -4528,14 +3819,14 @@
         <v>1.55</v>
       </c>
       <c r="F3" s="20"/>
-      <c r="H3" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="30">
+      <c r="H3" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="25">
         <f>+SUM(D2:D28)</f>
         <v>538</v>
       </c>
-      <c r="J3" s="40">
+      <c r="J3" s="35">
         <f>SUM(E2:E28)</f>
         <v>45.619999999999983</v>
       </c>
@@ -4557,14 +3848,14 @@
         <v>1.58</v>
       </c>
       <c r="F4" s="20"/>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="25">
         <f>+COUNT(D2:D28)</f>
         <v>27</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="25">
         <f>COUNT(E2:E28)</f>
         <v>27</v>
       </c>
@@ -4586,9 +3877,9 @@
         <v>1.58</v>
       </c>
       <c r="F5" s="20"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
@@ -4607,14 +3898,14 @@
         <v>1.6</v>
       </c>
       <c r="F6" s="20"/>
-      <c r="H6" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="93">
+      <c r="H6" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="88">
         <f>+I3/I4</f>
         <v>19.925925925925927</v>
       </c>
-      <c r="J6" s="93">
+      <c r="J6" s="88">
         <f>+J3/J4</f>
         <v>1.6896296296296289</v>
       </c>
@@ -4636,11 +3927,11 @@
         <v>1.6</v>
       </c>
       <c r="F7" s="20"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="40">
+      <c r="H7" s="25"/>
+      <c r="I7" s="35">
         <v>19.925925925925899</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="35">
         <v>1.6896296296296289</v>
       </c>
     </row>
@@ -4660,10 +3951,10 @@
       <c r="E8" s="20">
         <v>1.63</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
+      <c r="F8" s="21"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
@@ -4682,14 +3973,14 @@
         <v>1.65</v>
       </c>
       <c r="F9" s="20"/>
-      <c r="H9" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="94">
+      <c r="H9" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="89">
         <f>+MIN(D2:D28)</f>
         <v>18</v>
       </c>
-      <c r="J9" s="40">
+      <c r="J9" s="35">
         <f>+MIN(E2:E28)</f>
         <v>1.54</v>
       </c>
@@ -4711,14 +4002,14 @@
         <v>1.66</v>
       </c>
       <c r="F10" s="20"/>
-      <c r="H10" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="94">
+      <c r="H10" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="89">
         <f>+MAX(D2:D28)</f>
         <v>28</v>
       </c>
-      <c r="J10" s="40">
+      <c r="J10" s="35">
         <f>+MAX(E2:E28)</f>
         <v>1.83</v>
       </c>
@@ -4740,9 +4031,9 @@
         <v>1.66</v>
       </c>
       <c r="F11" s="20"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
@@ -4761,14 +4052,14 @@
         <v>1.67</v>
       </c>
       <c r="F12" s="20"/>
-      <c r="H12" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="40">
+      <c r="H12" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="35">
         <f>+I9-I6</f>
         <v>-1.9259259259259274</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12" s="35">
         <f>+J9-J6</f>
         <v>-0.14962962962962889</v>
       </c>
@@ -4790,14 +4081,14 @@
         <v>1.68</v>
       </c>
       <c r="F13" s="20"/>
-      <c r="H13" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="96">
+      <c r="H13" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="91">
         <f>+I10-I6</f>
         <v>8.0740740740740726</v>
       </c>
-      <c r="J13" s="96">
+      <c r="J13" s="91">
         <f>+J10-J6</f>
         <v>0.14037037037037114</v>
       </c>
@@ -4836,7 +4127,7 @@
       <c r="E15" s="20">
         <v>1.7</v>
       </c>
-      <c r="F15" s="22"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
@@ -5070,14 +4361,14 @@
       <c r="E28" s="20">
         <v>1.83</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F655EFC-47BD-C74B-9F5A-F2EC693EED06}">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -5091,114 +4382,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
-        <v>72</v>
+      <c r="A1" s="28" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="55" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>81</v>
+      <c r="C3" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="97" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="98">
+      <c r="A4" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="93">
         <v>10</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="62">
         <v>4</v>
       </c>
-      <c r="D4" s="67">
+      <c r="D4" s="62">
         <f>+B4*C4</f>
         <v>40</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="100">
+      <c r="A5" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="95">
         <v>9</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="63">
         <v>4</v>
       </c>
-      <c r="D5" s="68">
+      <c r="D5" s="63">
         <f t="shared" ref="D5:D7" si="0">+B5*C5</f>
         <v>36</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="100">
+      <c r="A6" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="95">
         <v>9</v>
       </c>
-      <c r="C6" s="68">
+      <c r="C6" s="63">
         <v>4</v>
       </c>
-      <c r="D6" s="68">
+      <c r="D6" s="63">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="102">
+      <c r="A7" s="96" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="97">
         <v>6.9</v>
       </c>
-      <c r="C7" s="103">
+      <c r="C7" s="98">
         <v>18</v>
       </c>
-      <c r="D7" s="103">
+      <c r="D7" s="98">
         <f t="shared" si="0"/>
         <v>124.2</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="27">
+      <c r="A8" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="22">
         <f>+SUM(B4:B7)</f>
         <v>34.9</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="22">
         <f>+SUM(C4:C7)</f>
         <v>30</v>
       </c>
-      <c r="D8" s="104">
+      <c r="D8" s="99">
         <f>+SUM(D4:D7)</f>
         <v>236.2</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E9" s="30"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="57" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="8">
@@ -5206,10 +4497,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="105">
+      <c r="B11" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="100">
         <f>+B8/C10</f>
         <v>8.7249999999999996</v>
       </c>
@@ -5219,34 +4510,34 @@
       <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="32" t="s">
-        <v>83</v>
+      <c r="B13" s="27" t="s">
+        <v>76</v>
       </c>
       <c r="C13" s="8">
         <f>+D8</f>
         <v>236.2</v>
       </c>
-      <c r="D13" s="64" t="s">
-        <v>94</v>
+      <c r="D13" s="59" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B14" s="32" t="s">
-        <v>84</v>
+      <c r="B14" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="C14" s="8">
         <f>+C8</f>
         <v>30</v>
       </c>
-      <c r="D14" s="64" t="s">
-        <v>95</v>
+      <c r="D14" s="59" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="105">
+      <c r="B15" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="100">
         <f>+C13/C14</f>
         <v>7.8733333333333331</v>
       </c>
@@ -5257,7 +4548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7576C37-4932-6048-BC1D-0E1FB524A1A8}">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -5273,133 +4564,133 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="101" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="110" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="42">
+      <c r="A3" s="37">
         <v>1</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="38">
         <v>1000</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="39">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="40">
         <f>+B3*C3</f>
         <v>46.9</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="41">
         <f>+B3+D3</f>
         <v>1046.9000000000001</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F3" s="42">
         <f>1+C3</f>
         <v>1.0468999999999999</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="48">
+      <c r="A4" s="43">
         <v>2</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="44">
         <f>+E3</f>
         <v>1046.9000000000001</v>
       </c>
-      <c r="C4" s="116">
+      <c r="C4" s="107">
         <v>-1.2E-2</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="46">
         <f>+B4*C4</f>
         <v>-12.562800000000001</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="47">
         <f>+B4+D4</f>
         <v>1034.3372000000002</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F4" s="48">
         <f t="shared" ref="F4:F6" si="0">1+C4</f>
         <v>0.98799999999999999</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="47">
         <f>+F3*F4</f>
         <v>1.0343372</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="48">
+      <c r="A5" s="43">
         <v>3</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="44">
         <f>+E4</f>
         <v>1034.3372000000002</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="45">
         <v>6.4199999999999993E-2</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="46">
         <f>+B5*C5</f>
         <v>66.404448240000008</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="47">
         <f>+B5+D5</f>
         <v>1100.7416482400001</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="48">
         <f t="shared" si="0"/>
         <v>1.0642</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="47">
         <f>+G4*F5</f>
         <v>1.1007416482400001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="54">
+      <c r="A6" s="49">
         <v>4</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="50">
         <f>+E5</f>
         <v>1100.7416482400001</v>
       </c>
-      <c r="C6" s="56">
+      <c r="C6" s="51">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="52">
         <f>+B6*C6</f>
         <v>47.001668379848006</v>
       </c>
-      <c r="E6" s="115">
+      <c r="E6" s="106">
         <f>+B6+D6</f>
         <v>1147.7433166198482</v>
       </c>
-      <c r="F6" s="58">
+      <c r="F6" s="53">
         <f t="shared" si="0"/>
         <v>1.0427</v>
       </c>
-      <c r="G6" s="112">
+      <c r="G6" s="103">
         <f>+G5*F6</f>
         <v>1.1477433166198481</v>
       </c>
@@ -5409,7 +4700,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C7" s="114">
+      <c r="C7" s="105">
         <f>AVERAGE(C3:C6)</f>
         <v>3.5449999999999995E-2</v>
       </c>
@@ -5419,13 +4710,13 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C8" s="41"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="37"/>
+        <v>83</v>
+      </c>
+      <c r="F8" s="36"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G9" s="18" t="s">
@@ -5439,10 +4730,10 @@
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="29">
         <v>1000</v>
       </c>
-      <c r="C10" s="113">
+      <c r="C10" s="104">
         <f>+H11-1</f>
         <v>3.504967452483787E-2</v>
       </c>
@@ -5450,7 +4741,7 @@
         <f>+B10*C10</f>
         <v>35.049674524837869</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="29">
         <f>+B10+D10</f>
         <v>1035.0496745248379</v>
       </c>
@@ -5460,11 +4751,11 @@
       <c r="A11">
         <v>2</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="29">
         <f>+E10</f>
         <v>1035.0496745248379</v>
       </c>
-      <c r="C11" s="113">
+      <c r="C11" s="104">
         <f>+C10</f>
         <v>3.504967452483787E-2</v>
       </c>
@@ -5472,12 +4763,12 @@
         <f>+B11*C11</f>
         <v>36.278154209134939</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="29">
         <f>+B11+D11</f>
         <v>1071.3278287339729</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H11">
         <f>G6^(1/4)</f>
@@ -5488,11 +4779,11 @@
       <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="29">
         <f>+E11</f>
         <v>1071.3278287339729</v>
       </c>
-      <c r="C12" s="113">
+      <c r="C12" s="104">
         <f>+C11</f>
         <v>3.504967452483787E-2</v>
       </c>
@@ -5500,7 +4791,7 @@
         <f>+B12*C12</f>
         <v>37.549691706527</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="29">
         <f>+B12+D12</f>
         <v>1108.8775204404999</v>
       </c>
@@ -5509,11 +4800,11 @@
       <c r="A13">
         <v>4</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="29">
         <f>+E12</f>
         <v>1108.8775204404999</v>
       </c>
-      <c r="C13" s="113">
+      <c r="C13" s="104">
         <f>+C12</f>
         <v>3.504967452483787E-2</v>
       </c>
@@ -5521,18 +4812,18 @@
         <f>+B13*C13</f>
         <v>38.865796179348777</v>
       </c>
-      <c r="E13" s="117">
+      <c r="E13" s="108">
         <f>+B13+D13</f>
         <v>1147.7433166198487</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E14" s="35"/>
+      <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="35"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="111"/>
+      <c r="D15" s="102"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -5549,12 +4840,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B682753-6962-4871-9D9A-D4D9AA98E97D}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
+    <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5566,132 +4857,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="74" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="31" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="72" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>108</v>
+      <c r="H2" s="31" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="73" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="73">
+      <c r="A3" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="68">
         <v>90</v>
       </c>
-      <c r="C3" s="74">
+      <c r="C3" s="69">
         <f>1/B3</f>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="D3" s="75">
+      <c r="D3" s="70">
         <f>50/B3</f>
         <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="68">
+      <c r="A4" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="63">
         <v>70</v>
       </c>
-      <c r="C4" s="69">
+      <c r="C4" s="64">
         <f>1/B4</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="46">
         <f t="shared" ref="D4:D7" si="0">50/B4</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="G4" s="118" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" s="118" t="s">
-        <v>110</v>
+      <c r="G4" s="109" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="109" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="68">
+      <c r="A5" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="63">
         <v>45</v>
       </c>
-      <c r="C5" s="69">
-        <f t="shared" ref="C4:C7" si="1">1/B5</f>
+      <c r="C5" s="64">
+        <f t="shared" ref="C5:C7" si="1">1/B5</f>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="46">
         <f t="shared" si="0"/>
         <v>1.1111111111111112</v>
       </c>
       <c r="G5" s="11">
         <v>1</v>
       </c>
-      <c r="H5" s="119">
+      <c r="H5" s="110">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="68">
+      <c r="A6" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="63">
         <v>40</v>
       </c>
-      <c r="C6" s="69">
+      <c r="C6" s="64">
         <f t="shared" si="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="46">
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
       <c r="G6" s="11">
         <v>0.5</v>
       </c>
-      <c r="H6" s="119">
+      <c r="H6" s="110">
         <f>1/G6</f>
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="76" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="76">
+      <c r="A7" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="71">
         <v>50</v>
       </c>
-      <c r="C7" s="77">
+      <c r="C7" s="72">
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
-      <c r="D7" s="78">
+      <c r="D7" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G7" s="11">
         <v>0.2</v>
       </c>
-      <c r="H7" s="119">
+      <c r="H7" s="110">
         <f>1/G7</f>
         <v>5</v>
       </c>
@@ -5705,7 +4996,7 @@
       <c r="G8" s="11">
         <v>0.01</v>
       </c>
-      <c r="H8" s="119">
+      <c r="H8" s="110">
         <f>1/G8</f>
         <v>100</v>
       </c>
@@ -5715,43 +5006,43 @@
       <c r="G9" s="11">
         <v>1E-4</v>
       </c>
-      <c r="H9" s="119">
+      <c r="H9" s="110">
         <f>1/G9</f>
         <v>10000</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="33">
         <v>5</v>
       </c>
       <c r="G10" s="11">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="H10" s="119">
+      <c r="H10" s="110">
         <f>1/G10</f>
         <v>999999999.99999988</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G11" s="11"/>
-      <c r="H11" s="119"/>
+      <c r="H11" s="110"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="108"/>
-      <c r="C12" s="109">
+      <c r="B12" s="113"/>
+      <c r="C12" s="114">
         <f>+SUM(C3:C7)</f>
         <v>9.2619047619047615E-2</v>
       </c>
-      <c r="H12" s="119"/>
+      <c r="H12" s="110"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="119"/>
+      <c r="H13" s="110"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F14">
@@ -5760,7 +5051,7 @@
       <c r="G14" s="11">
         <v>100</v>
       </c>
-      <c r="H14" s="119">
+      <c r="H14" s="110">
         <f>+F14/G14</f>
         <v>0.5</v>
       </c>
@@ -5770,15 +5061,15 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B15" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="66">
+      <c r="B15" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="61">
         <f>+C10/C12</f>
         <v>53.984575835475582</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F15">
         <v>50</v>
@@ -5786,7 +5077,7 @@
       <c r="G15" s="11">
         <v>200</v>
       </c>
-      <c r="H15" s="119">
+      <c r="H15" s="110">
         <f>+F15/G15</f>
         <v>0.25</v>
       </c>
@@ -5796,17 +5087,17 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H16" s="35"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="18" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C17" s="17">
         <f>250/C15</f>
         <v>4.6309523809523805</v>
       </c>
-      <c r="H17" s="35"/>
+      <c r="H17" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5816,4 +5107,562 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128A430F-44B8-4346-BD95-009EC474D597}">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <f>+COUNTIF($D$2:$D$28,D2)</f>
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>19</v>
+      </c>
+      <c r="E2" s="20">
+        <v>1.54</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2">
+        <f>+MAX(D2:D28)</f>
+        <v>28</v>
+      </c>
+      <c r="I2" s="3">
+        <f>+MAX(E2:E28)</f>
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f t="shared" ref="A3:A28" si="0">+COUNTIF($D$2:$D$28,D3)</f>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>18</v>
+      </c>
+      <c r="E3" s="20">
+        <v>1.55</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3">
+        <f>MIN(D2:D28)</f>
+        <v>18</v>
+      </c>
+      <c r="I3" s="3">
+        <f>+MIN(E2:E28)</f>
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4" s="20">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>19</v>
+      </c>
+      <c r="E5" s="20">
+        <v>1.58</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5">
+        <f>+H2-H3</f>
+        <v>10</v>
+      </c>
+      <c r="I5" s="3">
+        <f>+I2-I3</f>
+        <v>0.29000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6" s="20">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8" s="21">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+      <c r="E9" s="20">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10" s="20">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>21</v>
+      </c>
+      <c r="E11" s="20">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12" s="20">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>18</v>
+      </c>
+      <c r="E13" s="20">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>18</v>
+      </c>
+      <c r="E14" s="20">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>21</v>
+      </c>
+      <c r="E15" s="21">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>19</v>
+      </c>
+      <c r="E16" s="20">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17" s="20">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>21</v>
+      </c>
+      <c r="E18" s="20">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>22</v>
+      </c>
+      <c r="E19" s="20">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20" s="20">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21" s="20">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22" s="20">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="E23" s="20">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>19</v>
+      </c>
+      <c r="E24" s="20">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>28</v>
+      </c>
+      <c r="E25" s="20">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>19</v>
+      </c>
+      <c r="E26" s="20">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>23</v>
+      </c>
+      <c r="E27" s="20">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>21</v>
+      </c>
+      <c r="E28" s="21">
+        <v>1.83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Datos/Raw/grupo_edad_altura_excel.xlsx
+++ b/Datos/Raw/grupo_edad_altura_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/795fdf3ed47e8380/Trabajo/Academia/Anahuac/Cursos/Analisis_datos_I/R_ejercicios/Datos/Raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="655" documentId="13_ncr:1_{0EAC5EE9-CFCC-3641-AA7D-7120F92E1C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F84572F-8465-B14D-9A8A-25373F19321E}"/>
+  <xr:revisionPtr revIDLastSave="820" documentId="13_ncr:1_{0EAC5EE9-CFCC-3641-AA7D-7120F92E1C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99C35410-9385-C642-B7B5-36BBDA236C34}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="7" xr2:uid="{1B651967-EA38-4532-9886-F809CFA26B0F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="9" xr2:uid="{1B651967-EA38-4532-9886-F809CFA26B0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Posicion" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="Media_geometrica" sheetId="7" r:id="rId6"/>
     <sheet name="Media_armonica" sheetId="8" r:id="rId7"/>
     <sheet name="Tendencia_central" sheetId="4" r:id="rId8"/>
+    <sheet name="Desviacion" sheetId="9" r:id="rId9"/>
+    <sheet name="Varianza" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="127">
   <si>
     <t>Nombre</t>
   </si>
@@ -580,12 +582,135 @@
   <si>
     <t>Rango =</t>
   </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>xi - media</t>
+  </si>
+  <si>
+    <t>Edad (xi)</t>
+  </si>
+  <si>
+    <t>Promedio edad =</t>
+  </si>
+  <si>
+    <t>Promedio altura =</t>
+  </si>
+  <si>
+    <r>
+      <t>Desviaciones cuadraticas
+(x - m)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Desviación 
+(x-m)</t>
+  </si>
+  <si>
+    <t>Promedio
+m</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <charset val="2"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(x-m)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>metros</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Unidad de medida</t>
+  </si>
+  <si>
+    <t>metros</t>
+  </si>
+  <si>
+    <t>Varianza poblacional =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n = </t>
+  </si>
+  <si>
+    <t>personas</t>
+  </si>
+  <si>
+    <t>Varianza muestral =</t>
+  </si>
+  <si>
+    <t>Función en Excel</t>
+  </si>
+  <si>
+    <t>Desviación estándar poblacional =</t>
+  </si>
+  <si>
+    <t>Desviación estándar muestral =</t>
+  </si>
+  <si>
+    <t>En Excel</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
@@ -593,8 +718,10 @@
     <numFmt numFmtId="168" formatCode="0.00000000"/>
     <numFmt numFmtId="169" formatCode="0.0000%"/>
     <numFmt numFmtId="170" formatCode="0.00000%"/>
+    <numFmt numFmtId="171" formatCode="0.0000000"/>
+    <numFmt numFmtId="172" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,6 +786,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Cuerpo)"/>
     </font>
   </fonts>
   <fills count="7">
@@ -779,7 +912,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1060,6 +1193,26 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1779,7 +1932,7 @@
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1:E28"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2512,6 +2665,899 @@
     <mergeCell ref="J26:J27"/>
     <mergeCell ref="K3:K4"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B8B6B7-B4AA-DC48-B198-E4EC0A74EA80}">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="50" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="118" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="118" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="115" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="115" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="20">
+        <v>1.54</v>
+      </c>
+      <c r="D2" s="20">
+        <f>+AVERAGE($C$2:$C$28)</f>
+        <v>1.6896296296296289</v>
+      </c>
+      <c r="E2" s="20">
+        <f>+C2-D2</f>
+        <v>-0.14962962962962889</v>
+      </c>
+      <c r="F2" s="120">
+        <f>+E2^2</f>
+        <v>2.2389026063099917E-2</v>
+      </c>
+      <c r="G2" s="117">
+        <f>+(C2-AVERAGE($C$2:$C$28))^2</f>
+        <v>2.2389026063099917E-2</v>
+      </c>
+      <c r="I2" s="116"/>
+      <c r="J2" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2">
+        <f>+COUNTA(B2:B28)</f>
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="20">
+        <v>1.55</v>
+      </c>
+      <c r="D3" s="20">
+        <f t="shared" ref="D3:D28" si="0">+AVERAGE($C$2:$C$28)</f>
+        <v>1.6896296296296289</v>
+      </c>
+      <c r="E3" s="20">
+        <f t="shared" ref="E3:E28" si="1">+C3-D3</f>
+        <v>-0.13962962962962888</v>
+      </c>
+      <c r="F3" s="120">
+        <f>+E3*E3</f>
+        <v>1.9496433470507335E-2</v>
+      </c>
+      <c r="G3" s="117">
+        <f t="shared" ref="G3:G28" si="2">+(C3-AVERAGE($C$2:$C$28))^2</f>
+        <v>1.9496433470507335E-2</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="3">
+        <f>+AVERAGE(C2:C28)</f>
+        <v>1.6896296296296289</v>
+      </c>
+      <c r="L3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="20">
+        <v>1.58</v>
+      </c>
+      <c r="D4" s="20">
+        <f t="shared" si="0"/>
+        <v>1.6896296296296289</v>
+      </c>
+      <c r="E4" s="20">
+        <f>+C4-D4</f>
+        <v>-0.10962962962962886</v>
+      </c>
+      <c r="F4" s="120">
+        <f>+E4^2</f>
+        <v>1.2018655692729597E-2</v>
+      </c>
+      <c r="G4" s="117">
+        <f t="shared" si="2"/>
+        <v>1.2018655692729597E-2</v>
+      </c>
+      <c r="J4" s="119" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" s="117">
+        <f>+SUM(G2:G28)</f>
+        <v>0.16669629629629629</v>
+      </c>
+      <c r="L4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="20">
+        <v>1.58</v>
+      </c>
+      <c r="D5" s="20">
+        <f t="shared" si="0"/>
+        <v>1.6896296296296289</v>
+      </c>
+      <c r="E5" s="20">
+        <f t="shared" si="1"/>
+        <v>-0.10962962962962886</v>
+      </c>
+      <c r="F5" s="120">
+        <f t="shared" ref="F5:F28" si="3">+E5^2</f>
+        <v>1.2018655692729597E-2</v>
+      </c>
+      <c r="G5" s="117">
+        <f t="shared" si="2"/>
+        <v>1.2018655692729597E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="20">
+        <v>1.6</v>
+      </c>
+      <c r="D6" s="20">
+        <f t="shared" si="0"/>
+        <v>1.6896296296296289</v>
+      </c>
+      <c r="E6" s="20">
+        <f t="shared" si="1"/>
+        <v>-8.9629629629628838E-2</v>
+      </c>
+      <c r="F6" s="120">
+        <f t="shared" si="3"/>
+        <v>8.0334705075444397E-3</v>
+      </c>
+      <c r="G6" s="117">
+        <f t="shared" si="2"/>
+        <v>8.0334705075444397E-3</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" s="121">
+        <f>+K4/K2</f>
+        <v>6.1739368998628254E-3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="20">
+        <v>1.6</v>
+      </c>
+      <c r="D7" s="20">
+        <f t="shared" si="0"/>
+        <v>1.6896296296296289</v>
+      </c>
+      <c r="E7" s="20">
+        <f t="shared" si="1"/>
+        <v>-8.9629629629628838E-2</v>
+      </c>
+      <c r="F7" s="120">
+        <f t="shared" si="3"/>
+        <v>8.0334705075444397E-3</v>
+      </c>
+      <c r="G7" s="117">
+        <f t="shared" si="2"/>
+        <v>8.0334705075444397E-3</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" s="121">
+        <f>+K4/(K2-1)</f>
+        <v>6.4113960113960106E-3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="21">
+        <v>1.63</v>
+      </c>
+      <c r="D8" s="20">
+        <f t="shared" si="0"/>
+        <v>1.6896296296296289</v>
+      </c>
+      <c r="E8" s="20">
+        <f t="shared" si="1"/>
+        <v>-5.9629629629629033E-2</v>
+      </c>
+      <c r="F8" s="120">
+        <f t="shared" si="3"/>
+        <v>3.5556927297667328E-3</v>
+      </c>
+      <c r="G8" s="117">
+        <f t="shared" si="2"/>
+        <v>3.5556927297667328E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="21">
+        <v>1.65</v>
+      </c>
+      <c r="D9" s="20">
+        <f t="shared" si="0"/>
+        <v>1.6896296296296289</v>
+      </c>
+      <c r="E9" s="20">
+        <f t="shared" si="1"/>
+        <v>-3.9629629629629015E-2</v>
+      </c>
+      <c r="F9" s="120">
+        <f t="shared" si="3"/>
+        <v>1.57050754458157E-3</v>
+      </c>
+      <c r="G9" s="117">
+        <f t="shared" si="2"/>
+        <v>1.57050754458157E-3</v>
+      </c>
+      <c r="I9" s="123"/>
+      <c r="J9" s="124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="21">
+        <v>1.66</v>
+      </c>
+      <c r="D10" s="20">
+        <f t="shared" si="0"/>
+        <v>1.6896296296296289</v>
+      </c>
+      <c r="E10" s="20">
+        <f t="shared" si="1"/>
+        <v>-2.9629629629629006E-2</v>
+      </c>
+      <c r="F10" s="120">
+        <f t="shared" si="3"/>
+        <v>8.7791495198898909E-4</v>
+      </c>
+      <c r="G10" s="117">
+        <f t="shared" si="2"/>
+        <v>8.7791495198898909E-4</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="121">
+        <f>+_xlfn.VAR.P(C2:C28)</f>
+        <v>6.1739368998628254E-3</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="21">
+        <v>1.66</v>
+      </c>
+      <c r="D11" s="20">
+        <f t="shared" si="0"/>
+        <v>1.6896296296296289</v>
+      </c>
+      <c r="E11" s="20">
+        <f t="shared" si="1"/>
+        <v>-2.9629629629629006E-2</v>
+      </c>
+      <c r="F11" s="120">
+        <f t="shared" si="3"/>
+        <v>8.7791495198898909E-4</v>
+      </c>
+      <c r="G11" s="117">
+        <f t="shared" si="2"/>
+        <v>8.7791495198898909E-4</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" s="121">
+        <f>+_xlfn.VAR.S(C2:C28)</f>
+        <v>6.4113960113960106E-3</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="21">
+        <v>1.67</v>
+      </c>
+      <c r="D12" s="20">
+        <f t="shared" si="0"/>
+        <v>1.6896296296296289</v>
+      </c>
+      <c r="E12" s="20">
+        <f t="shared" si="1"/>
+        <v>-1.9629629629628997E-2</v>
+      </c>
+      <c r="F12" s="120">
+        <f t="shared" si="3"/>
+        <v>3.8532235939640864E-4</v>
+      </c>
+      <c r="G12" s="117">
+        <f t="shared" si="2"/>
+        <v>3.8532235939640864E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="21">
+        <v>1.68</v>
+      </c>
+      <c r="D13" s="20">
+        <f t="shared" si="0"/>
+        <v>1.6896296296296289</v>
+      </c>
+      <c r="E13" s="20">
+        <f t="shared" si="1"/>
+        <v>-9.6296296296289885E-3</v>
+      </c>
+      <c r="F13" s="120">
+        <f t="shared" si="3"/>
+        <v>9.2729766803828536E-5</v>
+      </c>
+      <c r="G13" s="117">
+        <f t="shared" si="2"/>
+        <v>9.2729766803828536E-5</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" s="122">
+        <f>+SQRT(K6)</f>
+        <v>7.8574403592154771E-2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="21">
+        <v>1.7</v>
+      </c>
+      <c r="D14" s="20">
+        <f t="shared" si="0"/>
+        <v>1.6896296296296289</v>
+      </c>
+      <c r="E14" s="20">
+        <f t="shared" si="1"/>
+        <v>1.0370370370371029E-2</v>
+      </c>
+      <c r="F14" s="120">
+        <f t="shared" si="3"/>
+        <v>1.0754458161866936E-4</v>
+      </c>
+      <c r="G14" s="117">
+        <f t="shared" si="2"/>
+        <v>1.0754458161866936E-4</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" s="122">
+        <f>+SQRT(K7)</f>
+        <v>8.0071193393104936E-2</v>
+      </c>
+      <c r="L14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="21">
+        <v>1.7</v>
+      </c>
+      <c r="D15" s="20">
+        <f t="shared" si="0"/>
+        <v>1.6896296296296289</v>
+      </c>
+      <c r="E15" s="20">
+        <f t="shared" si="1"/>
+        <v>1.0370370370371029E-2</v>
+      </c>
+      <c r="F15" s="120">
+        <f t="shared" si="3"/>
+        <v>1.0754458161866936E-4</v>
+      </c>
+      <c r="G15" s="117">
+        <f t="shared" si="2"/>
+        <v>1.0754458161866936E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="21">
+        <v>1.7</v>
+      </c>
+      <c r="D16" s="20">
+        <f t="shared" si="0"/>
+        <v>1.6896296296296289</v>
+      </c>
+      <c r="E16" s="20">
+        <f t="shared" si="1"/>
+        <v>1.0370370370371029E-2</v>
+      </c>
+      <c r="F16" s="120">
+        <f t="shared" si="3"/>
+        <v>1.0754458161866936E-4</v>
+      </c>
+      <c r="G16" s="117">
+        <f t="shared" si="2"/>
+        <v>1.0754458161866936E-4</v>
+      </c>
+      <c r="I16" s="123"/>
+      <c r="J16" s="124" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="21">
+        <v>1.7</v>
+      </c>
+      <c r="D17" s="20">
+        <f t="shared" si="0"/>
+        <v>1.6896296296296289</v>
+      </c>
+      <c r="E17" s="20">
+        <f t="shared" si="1"/>
+        <v>1.0370370370371029E-2</v>
+      </c>
+      <c r="F17" s="120">
+        <f t="shared" si="3"/>
+        <v>1.0754458161866936E-4</v>
+      </c>
+      <c r="G17" s="117">
+        <f t="shared" si="2"/>
+        <v>1.0754458161866936E-4</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="K17" s="122">
+        <f>+_xlfn.STDEV.P(C2:C28)</f>
+        <v>7.8574403592154771E-2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="21">
+        <v>1.72</v>
+      </c>
+      <c r="D18" s="20">
+        <f t="shared" si="0"/>
+        <v>1.6896296296296289</v>
+      </c>
+      <c r="E18" s="20">
+        <f t="shared" si="1"/>
+        <v>3.0370370370371047E-2</v>
+      </c>
+      <c r="F18" s="120">
+        <f t="shared" si="3"/>
+        <v>9.2235939643351165E-4</v>
+      </c>
+      <c r="G18" s="117">
+        <f t="shared" si="2"/>
+        <v>9.2235939643351165E-4</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="122">
+        <f>+_xlfn.STDEV.S(C2:C28)</f>
+        <v>8.0071193393104936E-2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="21">
+        <v>1.72</v>
+      </c>
+      <c r="D19" s="20">
+        <f t="shared" si="0"/>
+        <v>1.6896296296296289</v>
+      </c>
+      <c r="E19" s="20">
+        <f t="shared" si="1"/>
+        <v>3.0370370370371047E-2</v>
+      </c>
+      <c r="F19" s="120">
+        <f t="shared" si="3"/>
+        <v>9.2235939643351165E-4</v>
+      </c>
+      <c r="G19" s="117">
+        <f t="shared" si="2"/>
+        <v>9.2235939643351165E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="21">
+        <v>1.74</v>
+      </c>
+      <c r="D20" s="20">
+        <f t="shared" si="0"/>
+        <v>1.6896296296296289</v>
+      </c>
+      <c r="E20" s="20">
+        <f t="shared" si="1"/>
+        <v>5.0370370370371065E-2</v>
+      </c>
+      <c r="F20" s="120">
+        <f t="shared" si="3"/>
+        <v>2.5371742112483553E-3</v>
+      </c>
+      <c r="G20" s="117">
+        <f t="shared" si="2"/>
+        <v>2.5371742112483553E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="21">
+        <v>1.74</v>
+      </c>
+      <c r="D21" s="20">
+        <f t="shared" si="0"/>
+        <v>1.6896296296296289</v>
+      </c>
+      <c r="E21" s="20">
+        <f t="shared" si="1"/>
+        <v>5.0370370370371065E-2</v>
+      </c>
+      <c r="F21" s="120">
+        <f t="shared" si="3"/>
+        <v>2.5371742112483553E-3</v>
+      </c>
+      <c r="G21" s="117">
+        <f t="shared" si="2"/>
+        <v>2.5371742112483553E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="21">
+        <v>1.75</v>
+      </c>
+      <c r="D22" s="20">
+        <f t="shared" si="0"/>
+        <v>1.6896296296296289</v>
+      </c>
+      <c r="E22" s="20">
+        <f t="shared" si="1"/>
+        <v>6.0370370370371074E-2</v>
+      </c>
+      <c r="F22" s="120">
+        <f t="shared" si="3"/>
+        <v>3.6445816186557777E-3</v>
+      </c>
+      <c r="G22" s="117">
+        <f t="shared" si="2"/>
+        <v>3.6445816186557777E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="21">
+        <v>1.75</v>
+      </c>
+      <c r="D23" s="20">
+        <f t="shared" si="0"/>
+        <v>1.6896296296296289</v>
+      </c>
+      <c r="E23" s="20">
+        <f t="shared" si="1"/>
+        <v>6.0370370370371074E-2</v>
+      </c>
+      <c r="F23" s="120">
+        <f t="shared" si="3"/>
+        <v>3.6445816186557777E-3</v>
+      </c>
+      <c r="G23" s="117">
+        <f t="shared" si="2"/>
+        <v>3.6445816186557777E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="21">
+        <v>1.77</v>
+      </c>
+      <c r="D24" s="20">
+        <f t="shared" si="0"/>
+        <v>1.6896296296296289</v>
+      </c>
+      <c r="E24" s="20">
+        <f t="shared" si="1"/>
+        <v>8.0370370370371091E-2</v>
+      </c>
+      <c r="F24" s="120">
+        <f t="shared" si="3"/>
+        <v>6.4593964334706232E-3</v>
+      </c>
+      <c r="G24" s="117">
+        <f t="shared" si="2"/>
+        <v>6.4593964334706232E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="D25" s="20">
+        <f t="shared" si="0"/>
+        <v>1.6896296296296289</v>
+      </c>
+      <c r="E25" s="20">
+        <f t="shared" si="1"/>
+        <v>0.11037037037037112</v>
+      </c>
+      <c r="F25" s="120">
+        <f t="shared" si="3"/>
+        <v>1.2181618655692894E-2</v>
+      </c>
+      <c r="G25" s="117">
+        <f t="shared" si="2"/>
+        <v>1.2181618655692894E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="D26" s="20">
+        <f t="shared" si="0"/>
+        <v>1.6896296296296289</v>
+      </c>
+      <c r="E26" s="20">
+        <f t="shared" si="1"/>
+        <v>0.11037037037037112</v>
+      </c>
+      <c r="F26" s="120">
+        <f t="shared" si="3"/>
+        <v>1.2181618655692894E-2</v>
+      </c>
+      <c r="G26" s="117">
+        <f t="shared" si="2"/>
+        <v>1.2181618655692894E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="D27" s="20">
+        <f t="shared" si="0"/>
+        <v>1.6896296296296289</v>
+      </c>
+      <c r="E27" s="20">
+        <f t="shared" si="1"/>
+        <v>0.11037037037037112</v>
+      </c>
+      <c r="F27" s="120">
+        <f t="shared" si="3"/>
+        <v>1.2181618655692894E-2</v>
+      </c>
+      <c r="G27" s="117">
+        <f t="shared" si="2"/>
+        <v>1.2181618655692894E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="21">
+        <v>1.83</v>
+      </c>
+      <c r="D28" s="20">
+        <f t="shared" si="0"/>
+        <v>1.6896296296296289</v>
+      </c>
+      <c r="E28" s="20">
+        <f t="shared" si="1"/>
+        <v>0.14037037037037114</v>
+      </c>
+      <c r="F28" s="120">
+        <f t="shared" si="3"/>
+        <v>1.9703840877915168E-2</v>
+      </c>
+      <c r="G28" s="117">
+        <f t="shared" si="2"/>
+        <v>1.9703840877915168E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5113,7 +6159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128A430F-44B8-4346-BD95-009EC474D597}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
@@ -5665,4 +6711,546 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C163C6-A118-B648-859C-80AB7E73F8B7}">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3">
+        <f>+C2-AVERAGE($C$2:$C$28)</f>
+        <v>-0.92592592592592737</v>
+      </c>
+      <c r="G2" s="20">
+        <v>1.54</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="3">
+        <f>+AVERAGE($C$2:$C$28)</f>
+        <v>19.925925925925927</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D28" si="0">+C3-AVERAGE($C$2:$C$28)</f>
+        <v>-1.9259259259259274</v>
+      </c>
+      <c r="G3" s="20">
+        <v>1.55</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="3">
+        <f>+AVERAGE(G2:G28)</f>
+        <v>1.6896296296296289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.92592592592592737</v>
+      </c>
+      <c r="G4" s="20">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.92592592592592737</v>
+      </c>
+      <c r="G5" s="20">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>7.4074074074072627E-2</v>
+      </c>
+      <c r="G6" s="20">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.9259259259259274</v>
+      </c>
+      <c r="G7" s="20">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>7.4074074074072627E-2</v>
+      </c>
+      <c r="G8" s="21">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.9259259259259274</v>
+      </c>
+      <c r="G9" s="21">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>7.4074074074072627E-2</v>
+      </c>
+      <c r="G10" s="21">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0740740740740726</v>
+      </c>
+      <c r="G11" s="21">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>7.4074074074072627E-2</v>
+      </c>
+      <c r="G12" s="21">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.9259259259259274</v>
+      </c>
+      <c r="G13" s="21">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.9259259259259274</v>
+      </c>
+      <c r="G14" s="21">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>21</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0740740740740726</v>
+      </c>
+      <c r="G15" s="21">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.92592592592592737</v>
+      </c>
+      <c r="G16" s="21">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>7.4074074074072627E-2</v>
+      </c>
+      <c r="G17" s="21">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>21</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0740740740740726</v>
+      </c>
+      <c r="G18" s="21">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>22</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>2.0740740740740726</v>
+      </c>
+      <c r="G19" s="21">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.9259259259259274</v>
+      </c>
+      <c r="G20" s="21">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.92592592592592737</v>
+      </c>
+      <c r="G21" s="21">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>7.4074074074072627E-2</v>
+      </c>
+      <c r="G22" s="21">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>7.4074074074072627E-2</v>
+      </c>
+      <c r="G23" s="21">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>19</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.92592592592592737</v>
+      </c>
+      <c r="G24" s="21">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>28</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>8.0740740740740726</v>
+      </c>
+      <c r="G25" s="21">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>19</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.92592592592592737</v>
+      </c>
+      <c r="G26" s="21">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>3.0740740740740726</v>
+      </c>
+      <c r="G27" s="21">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>21</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0740740740740726</v>
+      </c>
+      <c r="G28" s="21">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D30" s="3">
+        <f>+SUM(D2:D28)</f>
+        <v>-3.907985046680551E-14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Datos/Raw/grupo_edad_altura_excel.xlsx
+++ b/Datos/Raw/grupo_edad_altura_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/795fdf3ed47e8380/Trabajo/Academia/Anahuac/Cursos/Analisis_datos_I/R_ejercicios/Datos/Raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/795fdf3ed47e8380/Trabajo/Academia/Anahuac/Cursos/2020_2021/Analisis_datos_I/R_ejercicios/Datos/Raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="820" documentId="13_ncr:1_{0EAC5EE9-CFCC-3641-AA7D-7120F92E1C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99C35410-9385-C642-B7B5-36BBDA236C34}"/>
+  <xr:revisionPtr revIDLastSave="958" documentId="13_ncr:1_{0EAC5EE9-CFCC-3641-AA7D-7120F92E1C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{568A3369-2E9E-4D76-901E-E8DB0D2E93AC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="9" xr2:uid="{1B651967-EA38-4532-9886-F809CFA26B0F}"/>
+    <workbookView xWindow="21060" yWindow="495" windowWidth="22620" windowHeight="16485" firstSheet="6" activeTab="10" xr2:uid="{1B651967-EA38-4532-9886-F809CFA26B0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Posicion" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="Tendencia_central" sheetId="4" r:id="rId8"/>
     <sheet name="Desviacion" sheetId="9" r:id="rId9"/>
     <sheet name="Varianza" sheetId="10" r:id="rId10"/>
+    <sheet name="Regla_empirica" sheetId="11" r:id="rId11"/>
+    <sheet name="Hoja1" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="139">
   <si>
     <t>Nombre</t>
   </si>
@@ -705,6 +707,158 @@
   <si>
     <t>En Excel</t>
   </si>
+  <si>
+    <t>Promedio =</t>
+  </si>
+  <si>
+    <t>Desviación estándar =</t>
+  </si>
+  <si>
+    <t>Regla empírica para altura</t>
+  </si>
+  <si>
+    <t>Registro</t>
+  </si>
+  <si>
+    <t>Muestra</t>
+  </si>
+  <si>
+    <t>Media poblacional =</t>
+  </si>
+  <si>
+    <t>Sumatoria xi =</t>
+  </si>
+  <si>
+    <t>Sumatoria xi=</t>
+  </si>
+  <si>
+    <t>2 desviaciones estándar se concentre AL MENOS el 75% de nuestros datos</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">75% están </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +/-  y 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Límite </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Límite </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -721,7 +875,7 @@
     <numFmt numFmtId="171" formatCode="0.0000000"/>
     <numFmt numFmtId="172" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -792,6 +946,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri (Cuerpo)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -912,7 +1073,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1182,18 +1343,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1213,6 +1362,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1932,17 +2094,17 @@
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1:E28"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:E28"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="30">
       <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
@@ -1980,7 +2142,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>44428.412731481483</v>
       </c>
@@ -2000,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>44428.411574074074</v>
       </c>
@@ -2019,20 +2181,20 @@
       <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="I3" s="111">
+      <c r="I3" s="122">
         <v>1</v>
       </c>
-      <c r="J3" s="111">
+      <c r="J3" s="122">
         <v>1.5740000000000001</v>
       </c>
-      <c r="K3" s="111">
+      <c r="K3" s="122">
         <v>10</v>
       </c>
-      <c r="L3" s="111">
+      <c r="L3" s="122">
         <v>1.5740000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>44428.390196759261</v>
       </c>
@@ -2051,10 +2213,10 @@
       <c r="F4" s="2">
         <v>3</v>
       </c>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
       <c r="O4" s="18" t="s">
         <v>41</v>
       </c>
@@ -2062,7 +2224,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>44428.38753472222</v>
       </c>
@@ -2090,7 +2252,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>44428.387071759258</v>
       </c>
@@ -2120,7 +2282,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>44428.387025462966</v>
       </c>
@@ -2147,7 +2309,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>44428.387997685182</v>
       </c>
@@ -2174,7 +2336,7 @@
         <v>1.5828571428571425</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>44428.391886574071</v>
       </c>
@@ -2195,7 +2357,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>44428.387685185182</v>
       </c>
@@ -2217,7 +2379,7 @@
       <c r="G10" s="14"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>44428.412407407406</v>
       </c>
@@ -2239,7 +2401,7 @@
       <c r="G11" s="14"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>44428.387129629627</v>
       </c>
@@ -2261,7 +2423,7 @@
       <c r="G12" s="14"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>44428.387314814812</v>
       </c>
@@ -2282,7 +2444,7 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>44428.390590277777</v>
       </c>
@@ -2303,7 +2465,7 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>44428.387175925927</v>
       </c>
@@ -2350,7 +2512,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>44428.387199074074</v>
       </c>
@@ -2371,7 +2533,7 @@
       </c>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>44428.386747685188</v>
       </c>
@@ -2392,7 +2554,7 @@
       </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>44428.38721064815</v>
       </c>
@@ -2413,7 +2575,7 @@
       </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>44428.412210648145</v>
       </c>
@@ -2434,7 +2596,7 @@
       </c>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>44428.38685185185</v>
       </c>
@@ -2455,7 +2617,7 @@
       </c>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>44428.387314814812</v>
       </c>
@@ -2476,7 +2638,7 @@
       </c>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>44428.387118055558</v>
       </c>
@@ -2510,7 +2672,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>44428.388182870367</v>
       </c>
@@ -2531,7 +2693,7 @@
       </c>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>44428.386886574073</v>
       </c>
@@ -2552,7 +2714,7 @@
       </c>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>44428.387199074074</v>
       </c>
@@ -2573,7 +2735,7 @@
       </c>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>44428.414803240739</v>
       </c>
@@ -2593,17 +2755,17 @@
         <v>25</v>
       </c>
       <c r="G26" s="11"/>
-      <c r="I26" s="111">
+      <c r="I26" s="122">
         <v>9</v>
       </c>
-      <c r="J26" s="112">
+      <c r="J26" s="123">
         <v>1.8</v>
       </c>
       <c r="L26">
         <v>25.2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>44428.412442129629</v>
       </c>
@@ -2623,10 +2785,10 @@
         <v>26</v>
       </c>
       <c r="G27" s="11"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="112"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I27" s="122"/>
+      <c r="J27" s="123"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>44428.387476851851</v>
       </c>
@@ -2673,17 +2835,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B8B6B7-B4AA-DC48-B198-E4EC0A74EA80}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="50" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="62.25">
       <c r="A1" t="s">
         <v>107</v>
       </c>
@@ -2693,23 +2855,23 @@
       <c r="C1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="114" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="118" t="s">
+      <c r="E1" s="114" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="115" t="s">
+      <c r="G1" s="111" t="s">
         <v>112</v>
       </c>
       <c r="L1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2727,15 +2889,15 @@
         <f>+C2-D2</f>
         <v>-0.14962962962962889</v>
       </c>
-      <c r="F2" s="120">
+      <c r="F2" s="116">
         <f>+E2^2</f>
         <v>2.2389026063099917E-2</v>
       </c>
-      <c r="G2" s="117">
+      <c r="G2" s="113">
         <f>+(C2-AVERAGE($C$2:$C$28))^2</f>
         <v>2.2389026063099917E-2</v>
       </c>
-      <c r="I2" s="116"/>
+      <c r="I2" s="112"/>
       <c r="J2" s="18" t="s">
         <v>120</v>
       </c>
@@ -2747,7 +2909,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2765,11 +2927,11 @@
         <f t="shared" ref="E3:E28" si="1">+C3-D3</f>
         <v>-0.13962962962962888</v>
       </c>
-      <c r="F3" s="120">
+      <c r="F3" s="116">
         <f>+E3*E3</f>
         <v>1.9496433470507335E-2</v>
       </c>
-      <c r="G3" s="117">
+      <c r="G3" s="113">
         <f t="shared" ref="G3:G28" si="2">+(C3-AVERAGE($C$2:$C$28))^2</f>
         <v>1.9496433470507335E-2</v>
       </c>
@@ -2784,7 +2946,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="17.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2802,18 +2964,18 @@
         <f>+C4-D4</f>
         <v>-0.10962962962962886</v>
       </c>
-      <c r="F4" s="120">
+      <c r="F4" s="116">
         <f>+E4^2</f>
         <v>1.2018655692729597E-2</v>
       </c>
-      <c r="G4" s="117">
+      <c r="G4" s="113">
         <f t="shared" si="2"/>
         <v>1.2018655692729597E-2</v>
       </c>
-      <c r="J4" s="119" t="s">
+      <c r="J4" s="115" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="117">
+      <c r="K4" s="113">
         <f>+SUM(G2:G28)</f>
         <v>0.16669629629629629</v>
       </c>
@@ -2821,7 +2983,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2839,16 +3001,16 @@
         <f t="shared" si="1"/>
         <v>-0.10962962962962886</v>
       </c>
-      <c r="F5" s="120">
+      <c r="F5" s="116">
         <f t="shared" ref="F5:F28" si="3">+E5^2</f>
         <v>1.2018655692729597E-2</v>
       </c>
-      <c r="G5" s="117">
+      <c r="G5" s="113">
         <f t="shared" si="2"/>
         <v>1.2018655692729597E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="17.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2866,18 +3028,18 @@
         <f t="shared" si="1"/>
         <v>-8.9629629629628838E-2</v>
       </c>
-      <c r="F6" s="120">
+      <c r="F6" s="116">
         <f t="shared" si="3"/>
         <v>8.0334705075444397E-3</v>
       </c>
-      <c r="G6" s="117">
+      <c r="G6" s="113">
         <f t="shared" si="2"/>
         <v>8.0334705075444397E-3</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="K6" s="121">
+      <c r="K6" s="117">
         <f>+K4/K2</f>
         <v>6.1739368998628254E-3</v>
       </c>
@@ -2885,7 +3047,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="17.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2903,18 +3065,18 @@
         <f t="shared" si="1"/>
         <v>-8.9629629629628838E-2</v>
       </c>
-      <c r="F7" s="120">
+      <c r="F7" s="116">
         <f t="shared" si="3"/>
         <v>8.0334705075444397E-3</v>
       </c>
-      <c r="G7" s="117">
+      <c r="G7" s="113">
         <f t="shared" si="2"/>
         <v>8.0334705075444397E-3</v>
       </c>
       <c r="J7" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="K7" s="121">
+      <c r="K7" s="117">
         <f>+K4/(K2-1)</f>
         <v>6.4113960113960106E-3</v>
       </c>
@@ -2922,7 +3084,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2940,16 +3102,16 @@
         <f t="shared" si="1"/>
         <v>-5.9629629629629033E-2</v>
       </c>
-      <c r="F8" s="120">
+      <c r="F8" s="116">
         <f t="shared" si="3"/>
         <v>3.5556927297667328E-3</v>
       </c>
-      <c r="G8" s="117">
+      <c r="G8" s="113">
         <f t="shared" si="2"/>
         <v>3.5556927297667328E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2967,20 +3129,20 @@
         <f t="shared" si="1"/>
         <v>-3.9629629629629015E-2</v>
       </c>
-      <c r="F9" s="120">
+      <c r="F9" s="116">
         <f t="shared" si="3"/>
         <v>1.57050754458157E-3</v>
       </c>
-      <c r="G9" s="117">
+      <c r="G9" s="113">
         <f t="shared" si="2"/>
         <v>1.57050754458157E-3</v>
       </c>
-      <c r="I9" s="123"/>
-      <c r="J9" s="124" t="s">
+      <c r="I9" s="119"/>
+      <c r="J9" s="120" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="17.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2998,18 +3160,18 @@
         <f t="shared" si="1"/>
         <v>-2.9629629629629006E-2</v>
       </c>
-      <c r="F10" s="120">
+      <c r="F10" s="116">
         <f t="shared" si="3"/>
         <v>8.7791495198898909E-4</v>
       </c>
-      <c r="G10" s="117">
+      <c r="G10" s="113">
         <f t="shared" si="2"/>
         <v>8.7791495198898909E-4</v>
       </c>
       <c r="J10" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="K10" s="121">
+      <c r="K10" s="117">
         <f>+_xlfn.VAR.P(C2:C28)</f>
         <v>6.1739368998628254E-3</v>
       </c>
@@ -3017,7 +3179,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="17.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3035,18 +3197,18 @@
         <f t="shared" si="1"/>
         <v>-2.9629629629629006E-2</v>
       </c>
-      <c r="F11" s="120">
+      <c r="F11" s="116">
         <f t="shared" si="3"/>
         <v>8.7791495198898909E-4</v>
       </c>
-      <c r="G11" s="117">
+      <c r="G11" s="113">
         <f t="shared" si="2"/>
         <v>8.7791495198898909E-4</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="K11" s="121">
+      <c r="K11" s="117">
         <f>+_xlfn.VAR.S(C2:C28)</f>
         <v>6.4113960113960106E-3</v>
       </c>
@@ -3054,7 +3216,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3072,16 +3234,16 @@
         <f t="shared" si="1"/>
         <v>-1.9629629629628997E-2</v>
       </c>
-      <c r="F12" s="120">
+      <c r="F12" s="116">
         <f t="shared" si="3"/>
         <v>3.8532235939640864E-4</v>
       </c>
-      <c r="G12" s="117">
+      <c r="G12" s="113">
         <f t="shared" si="2"/>
         <v>3.8532235939640864E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3099,18 +3261,18 @@
         <f t="shared" si="1"/>
         <v>-9.6296296296289885E-3</v>
       </c>
-      <c r="F13" s="120">
+      <c r="F13" s="116">
         <f t="shared" si="3"/>
         <v>9.2729766803828536E-5</v>
       </c>
-      <c r="G13" s="117">
+      <c r="G13" s="113">
         <f t="shared" si="2"/>
         <v>9.2729766803828536E-5</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="K13" s="122">
+      <c r="K13" s="118">
         <f>+SQRT(K6)</f>
         <v>7.8574403592154771E-2</v>
       </c>
@@ -3118,7 +3280,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3136,18 +3298,18 @@
         <f t="shared" si="1"/>
         <v>1.0370370370371029E-2</v>
       </c>
-      <c r="F14" s="120">
+      <c r="F14" s="116">
         <f t="shared" si="3"/>
         <v>1.0754458161866936E-4</v>
       </c>
-      <c r="G14" s="117">
+      <c r="G14" s="113">
         <f t="shared" si="2"/>
         <v>1.0754458161866936E-4</v>
       </c>
       <c r="J14" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="K14" s="122">
+      <c r="K14" s="118">
         <f>+SQRT(K7)</f>
         <v>8.0071193393104936E-2</v>
       </c>
@@ -3155,7 +3317,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3173,16 +3335,16 @@
         <f t="shared" si="1"/>
         <v>1.0370370370371029E-2</v>
       </c>
-      <c r="F15" s="120">
+      <c r="F15" s="116">
         <f t="shared" si="3"/>
         <v>1.0754458161866936E-4</v>
       </c>
-      <c r="G15" s="117">
+      <c r="G15" s="113">
         <f t="shared" si="2"/>
         <v>1.0754458161866936E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3200,20 +3362,20 @@
         <f t="shared" si="1"/>
         <v>1.0370370370371029E-2</v>
       </c>
-      <c r="F16" s="120">
+      <c r="F16" s="116">
         <f t="shared" si="3"/>
         <v>1.0754458161866936E-4</v>
       </c>
-      <c r="G16" s="117">
+      <c r="G16" s="113">
         <f t="shared" si="2"/>
         <v>1.0754458161866936E-4</v>
       </c>
-      <c r="I16" s="123"/>
-      <c r="J16" s="124" t="s">
+      <c r="I16" s="119"/>
+      <c r="J16" s="120" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3231,18 +3393,18 @@
         <f t="shared" si="1"/>
         <v>1.0370370370371029E-2</v>
       </c>
-      <c r="F17" s="120">
+      <c r="F17" s="116">
         <f t="shared" si="3"/>
         <v>1.0754458161866936E-4</v>
       </c>
-      <c r="G17" s="117">
+      <c r="G17" s="113">
         <f t="shared" si="2"/>
         <v>1.0754458161866936E-4</v>
       </c>
       <c r="J17" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="K17" s="122">
+      <c r="K17" s="118">
         <f>+_xlfn.STDEV.P(C2:C28)</f>
         <v>7.8574403592154771E-2</v>
       </c>
@@ -3250,7 +3412,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3268,18 +3430,18 @@
         <f t="shared" si="1"/>
         <v>3.0370370370371047E-2</v>
       </c>
-      <c r="F18" s="120">
+      <c r="F18" s="116">
         <f t="shared" si="3"/>
         <v>9.2235939643351165E-4</v>
       </c>
-      <c r="G18" s="117">
+      <c r="G18" s="113">
         <f t="shared" si="2"/>
         <v>9.2235939643351165E-4</v>
       </c>
       <c r="J18" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="K18" s="122">
+      <c r="K18" s="118">
         <f>+_xlfn.STDEV.S(C2:C28)</f>
         <v>8.0071193393104936E-2</v>
       </c>
@@ -3287,7 +3449,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3305,16 +3467,16 @@
         <f t="shared" si="1"/>
         <v>3.0370370370371047E-2</v>
       </c>
-      <c r="F19" s="120">
+      <c r="F19" s="116">
         <f t="shared" si="3"/>
         <v>9.2235939643351165E-4</v>
       </c>
-      <c r="G19" s="117">
+      <c r="G19" s="113">
         <f t="shared" si="2"/>
         <v>9.2235939643351165E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3332,16 +3494,16 @@
         <f t="shared" si="1"/>
         <v>5.0370370370371065E-2</v>
       </c>
-      <c r="F20" s="120">
+      <c r="F20" s="116">
         <f t="shared" si="3"/>
         <v>2.5371742112483553E-3</v>
       </c>
-      <c r="G20" s="117">
+      <c r="G20" s="113">
         <f t="shared" si="2"/>
         <v>2.5371742112483553E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3359,16 +3521,16 @@
         <f t="shared" si="1"/>
         <v>5.0370370370371065E-2</v>
       </c>
-      <c r="F21" s="120">
+      <c r="F21" s="116">
         <f t="shared" si="3"/>
         <v>2.5371742112483553E-3</v>
       </c>
-      <c r="G21" s="117">
+      <c r="G21" s="113">
         <f t="shared" si="2"/>
         <v>2.5371742112483553E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3386,16 +3548,16 @@
         <f t="shared" si="1"/>
         <v>6.0370370370371074E-2</v>
       </c>
-      <c r="F22" s="120">
+      <c r="F22" s="116">
         <f t="shared" si="3"/>
         <v>3.6445816186557777E-3</v>
       </c>
-      <c r="G22" s="117">
+      <c r="G22" s="113">
         <f t="shared" si="2"/>
         <v>3.6445816186557777E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3413,16 +3575,16 @@
         <f t="shared" si="1"/>
         <v>6.0370370370371074E-2</v>
       </c>
-      <c r="F23" s="120">
+      <c r="F23" s="116">
         <f t="shared" si="3"/>
         <v>3.6445816186557777E-3</v>
       </c>
-      <c r="G23" s="117">
+      <c r="G23" s="113">
         <f t="shared" si="2"/>
         <v>3.6445816186557777E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3440,16 +3602,16 @@
         <f t="shared" si="1"/>
         <v>8.0370370370371091E-2</v>
       </c>
-      <c r="F24" s="120">
+      <c r="F24" s="116">
         <f t="shared" si="3"/>
         <v>6.4593964334706232E-3</v>
       </c>
-      <c r="G24" s="117">
+      <c r="G24" s="113">
         <f t="shared" si="2"/>
         <v>6.4593964334706232E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3467,16 +3629,16 @@
         <f t="shared" si="1"/>
         <v>0.11037037037037112</v>
       </c>
-      <c r="F25" s="120">
+      <c r="F25" s="116">
         <f t="shared" si="3"/>
         <v>1.2181618655692894E-2</v>
       </c>
-      <c r="G25" s="117">
+      <c r="G25" s="113">
         <f t="shared" si="2"/>
         <v>1.2181618655692894E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3494,16 +3656,16 @@
         <f t="shared" si="1"/>
         <v>0.11037037037037112</v>
       </c>
-      <c r="F26" s="120">
+      <c r="F26" s="116">
         <f t="shared" si="3"/>
         <v>1.2181618655692894E-2</v>
       </c>
-      <c r="G26" s="117">
+      <c r="G26" s="113">
         <f t="shared" si="2"/>
         <v>1.2181618655692894E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3521,16 +3683,16 @@
         <f t="shared" si="1"/>
         <v>0.11037037037037112</v>
       </c>
-      <c r="F27" s="120">
+      <c r="F27" s="116">
         <f t="shared" si="3"/>
         <v>1.2181618655692894E-2</v>
       </c>
-      <c r="G27" s="117">
+      <c r="G27" s="113">
         <f t="shared" si="2"/>
         <v>1.2181618655692894E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3548,17 +3710,720 @@
         <f t="shared" si="1"/>
         <v>0.14037037037037114</v>
       </c>
-      <c r="F28" s="120">
+      <c r="F28" s="116">
         <f t="shared" si="3"/>
         <v>1.9703840877915168E-2</v>
       </c>
-      <c r="G28" s="117">
+      <c r="G28" s="113">
         <f t="shared" si="2"/>
         <v>1.9703840877915168E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523FF810-54A5-4A7A-BB02-BC02E5D1329A}">
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="20">
+        <v>1.54</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="113">
+        <f>+AVERAGE(C2:C28)</f>
+        <v>1.6896296296296289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="20">
+        <v>1.55</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="113">
+        <f>+_xlfn.STDEV.P(C2:C28)</f>
+        <v>7.8574403592154771E-2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="20">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="20">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="20">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="20">
+        <v>1.6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="21">
+        <v>1.63</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="3">
+        <f>+F2-2*F3</f>
+        <v>1.5324808224453195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="21">
+        <v>1.65</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="3">
+        <f>+F2+2*F3</f>
+        <v>1.8467784368139384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="21">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="21">
+        <v>1.66</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="21">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="21">
+        <v>1.68</v>
+      </c>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="21">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="21">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="21">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="21">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="21">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="21">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="21">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="21">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="21">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="21">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="21">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="21">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="21">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="21">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="21">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35">
+        <f>27*0.75</f>
+        <v>20.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007C518E-3CD0-41D0-BD97-C07D102D624B}">
+  <dimension ref="B1:I32"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20">
+        <v>1.54</v>
+      </c>
+      <c r="F2" s="11">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="20">
+        <v>1.55</v>
+      </c>
+      <c r="F3" s="11">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1.58</v>
+      </c>
+      <c r="I3">
+        <f>4-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="20">
+        <v>1.58</v>
+      </c>
+      <c r="F4" s="11">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="20">
+        <v>1.58</v>
+      </c>
+      <c r="F5" s="11">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="20">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="20">
+        <v>1.6</v>
+      </c>
+      <c r="G7" s="3">
+        <f>+SUM(G2:G5)</f>
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="21">
+        <v>1.63</v>
+      </c>
+      <c r="G8">
+        <f>+G7/F5</f>
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="20">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="20">
+        <v>1.66</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10">
+        <f>1.69*4</f>
+        <v>6.76</v>
+      </c>
+      <c r="H10" s="3">
+        <f>+G10-G7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="20">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="20">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="20">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="20">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="21">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="20">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="20">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="20">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" s="20">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="20">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" s="20">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" s="20">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" s="20">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" s="20">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" s="20">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" s="20">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" s="20">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" s="21">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="121">
+        <f>+AVERAGE(C2:C28)</f>
+        <v>1.6899999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31">
+        <f>B28</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32">
+        <f>+C30*B28</f>
+        <v>45.629999999999988</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3567,15 +4432,15 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:G15"/>
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
@@ -3607,7 +4472,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>44428.411574074074</v>
       </c>
@@ -3634,7 +4499,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>44428.387025462966</v>
       </c>
@@ -3652,7 +4517,7 @@
       </c>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>44428.391886574071</v>
       </c>
@@ -3676,7 +4541,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>44428.387314814812</v>
       </c>
@@ -3700,7 +4565,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>44428.390590277777</v>
       </c>
@@ -3724,7 +4589,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>44428.38685185185</v>
       </c>
@@ -3741,7 +4606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>44428.412731481483</v>
       </c>
@@ -3758,7 +4623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>44428.390196759261</v>
       </c>
@@ -3775,7 +4640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>44428.38753472222</v>
       </c>
@@ -3792,7 +4657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>44428.387199074074</v>
       </c>
@@ -3809,7 +4674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>44428.387314814812</v>
       </c>
@@ -3826,7 +4691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>44428.386886574073</v>
       </c>
@@ -3843,7 +4708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>44428.414803240739</v>
       </c>
@@ -3859,15 +4724,15 @@
       <c r="E14">
         <v>13</v>
       </c>
-      <c r="F14" s="113" t="s">
+      <c r="F14" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="113">
+      <c r="G14" s="124">
         <f>+(19+20)/2</f>
         <v>19.5</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>44428.387071759258</v>
       </c>
@@ -3883,10 +4748,10 @@
       <c r="E15">
         <v>14</v>
       </c>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>44428.387997685182</v>
       </c>
@@ -3903,7 +4768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>44428.387685185182</v>
       </c>
@@ -3920,7 +4785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>44428.387129629627</v>
       </c>
@@ -3937,7 +4802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>44428.386747685188</v>
       </c>
@@ -3954,7 +4819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>44428.387118055558</v>
       </c>
@@ -3971,7 +4836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>44428.388182870367</v>
       </c>
@@ -3988,7 +4853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>44428.412407407406</v>
       </c>
@@ -4005,7 +4870,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>44428.387175925927</v>
       </c>
@@ -4022,7 +4887,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>44428.38721064815</v>
       </c>
@@ -4039,7 +4904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>44428.412210648145</v>
       </c>
@@ -4056,7 +4921,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>44428.412442129629</v>
       </c>
@@ -4073,7 +4938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>44428.387199074074</v>
       </c>
@@ -4111,12 +4976,12 @@
       <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="28" t="s">
         <v>96</v>
       </c>
@@ -4124,7 +4989,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="75" t="s">
         <v>0</v>
       </c>
@@ -4147,7 +5012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="77" t="s">
         <v>9</v>
       </c>
@@ -4170,7 +5035,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="25" t="s">
         <v>13</v>
       </c>
@@ -4193,7 +5058,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="25" t="s">
         <v>10</v>
       </c>
@@ -4216,7 +5081,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="25" t="s">
         <v>15</v>
       </c>
@@ -4239,7 +5104,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="25" t="s">
         <v>4</v>
       </c>
@@ -4262,7 +5127,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="25" t="s">
         <v>16</v>
       </c>
@@ -4285,7 +5150,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="25" t="s">
         <v>12</v>
       </c>
@@ -4308,7 +5173,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="25" t="s">
         <v>11</v>
       </c>
@@ -4331,7 +5196,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="25" t="s">
         <v>14</v>
       </c>
@@ -4354,7 +5219,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="25" t="s">
         <v>33</v>
       </c>
@@ -4377,7 +5242,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="25" t="s">
         <v>23</v>
       </c>
@@ -4400,7 +5265,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="25" t="s">
         <v>20</v>
       </c>
@@ -4423,7 +5288,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="25" t="s">
         <v>21</v>
       </c>
@@ -4446,7 +5311,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="25" t="s">
         <v>22</v>
       </c>
@@ -4469,7 +5334,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="25" t="s">
         <v>26</v>
       </c>
@@ -4492,7 +5357,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="25" t="s">
         <v>31</v>
       </c>
@@ -4515,7 +5380,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="25" t="s">
         <v>24</v>
       </c>
@@ -4538,7 +5403,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="25" t="s">
         <v>32</v>
       </c>
@@ -4561,7 +5426,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="25" t="s">
         <v>18</v>
       </c>
@@ -4584,7 +5449,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="25" t="s">
         <v>25</v>
       </c>
@@ -4607,7 +5472,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="25" t="s">
         <v>17</v>
       </c>
@@ -4630,7 +5495,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="25" t="s">
         <v>7</v>
       </c>
@@ -4653,7 +5518,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="25" t="s">
         <v>28</v>
       </c>
@@ -4676,7 +5541,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="25" t="s">
         <v>19</v>
       </c>
@@ -4699,7 +5564,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="25" t="s">
         <v>27</v>
       </c>
@@ -4722,7 +5587,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="78" t="s">
         <v>30</v>
       </c>
@@ -4745,7 +5610,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="E29" s="83" t="s">
         <v>29</v>
       </c>
@@ -4759,7 +5624,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="B31" s="23" t="s">
         <v>47</v>
       </c>
@@ -4793,14 +5658,14 @@
       <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="8" max="8" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="11" t="s">
         <v>57</v>
       </c>
@@ -4827,7 +5692,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -4848,7 +5713,7 @@
       <c r="I2" s="77"/>
       <c r="J2" s="77"/>
     </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="18.75">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -4877,7 +5742,7 @@
         <v>45.619999999999983</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -4906,7 +5771,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -4927,7 +5792,7 @@
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -4956,7 +5821,7 @@
         <v>1.6896296296296289</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -4981,7 +5846,7 @@
         <v>1.6896296296296289</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -5002,7 +5867,7 @@
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -5031,7 +5896,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -5060,7 +5925,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -5081,7 +5946,7 @@
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -5110,7 +5975,7 @@
         <v>-0.14962962962962889</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -5139,7 +6004,7 @@
         <v>0.14037037037037114</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -5157,7 +6022,7 @@
       </c>
       <c r="F14" s="20"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -5175,7 +6040,7 @@
       </c>
       <c r="F15" s="21"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -5193,7 +6058,7 @@
       </c>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -5211,7 +6076,7 @@
       </c>
       <c r="F17" s="20"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -5229,7 +6094,7 @@
       </c>
       <c r="F18" s="20"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -5247,7 +6112,7 @@
       </c>
       <c r="F19" s="20"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -5265,7 +6130,7 @@
       </c>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -5283,7 +6148,7 @@
       </c>
       <c r="F21" s="20"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -5301,7 +6166,7 @@
       </c>
       <c r="F22" s="20"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -5319,7 +6184,7 @@
       </c>
       <c r="F23" s="20"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -5337,7 +6202,7 @@
       </c>
       <c r="F24" s="20"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -5355,7 +6220,7 @@
       </c>
       <c r="F25" s="20"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -5373,7 +6238,7 @@
       </c>
       <c r="F26" s="20"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -5391,7 +6256,7 @@
       </c>
       <c r="F27" s="20"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -5422,22 +6287,22 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="28" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="33.75">
       <c r="A3" s="54"/>
       <c r="B3" s="55" t="s">
         <v>73</v>
@@ -5449,7 +6314,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="92" t="s">
         <v>67</v>
       </c>
@@ -5465,7 +6330,7 @@
       </c>
       <c r="E4" s="25"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="94" t="s">
         <v>68</v>
       </c>
@@ -5481,7 +6346,7 @@
       </c>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="94" t="s">
         <v>69</v>
       </c>
@@ -5497,7 +6362,7 @@
       </c>
       <c r="E6" s="25"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="96" t="s">
         <v>70</v>
       </c>
@@ -5513,7 +6378,7 @@
       </c>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="58" t="s">
         <v>71</v>
       </c>
@@ -5531,10 +6396,10 @@
       </c>
       <c r="E8" s="25"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="E9" s="25"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="B10" s="57" t="s">
         <v>41</v>
       </c>
@@ -5542,7 +6407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="B11" s="58" t="s">
         <v>72</v>
       </c>
@@ -5551,11 +6416,11 @@
         <v>8.7249999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="9.9499999999999993" customHeight="1">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="18.75">
       <c r="B13" s="27" t="s">
         <v>76</v>
       </c>
@@ -5567,7 +6432,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="18.75">
       <c r="B14" s="27" t="s">
         <v>77</v>
       </c>
@@ -5579,7 +6444,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="B15" s="58" t="s">
         <v>86</v>
       </c>
@@ -5602,18 +6467,18 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="45">
       <c r="A2" s="34" t="s">
         <v>78</v>
       </c>
@@ -5633,7 +6498,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="37">
         <v>1</v>
       </c>
@@ -5657,7 +6522,7 @@
       </c>
       <c r="G3" s="47"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="43">
         <v>2</v>
       </c>
@@ -5685,7 +6550,7 @@
         <v>1.0343372</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="43">
         <v>3</v>
       </c>
@@ -5713,7 +6578,7 @@
         <v>1.1007416482400001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="49">
         <v>4</v>
       </c>
@@ -5745,7 +6610,7 @@
         <v>14.774331661984831</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="C7" s="105">
         <f>AVERAGE(C3:C6)</f>
         <v>3.5449999999999995E-2</v>
@@ -5755,7 +6620,7 @@
         <v>3.6935829154962079</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="C8" s="36"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18" t="s">
@@ -5764,7 +6629,7 @@
       <c r="F8" s="36"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="G9" s="18" t="s">
         <v>41</v>
       </c>
@@ -5772,7 +6637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>1</v>
       </c>
@@ -5793,7 +6658,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>2</v>
       </c>
@@ -5821,7 +6686,7 @@
         <v>1.0350496745248379</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>3</v>
       </c>
@@ -5842,7 +6707,7 @@
         <v>1108.8775204404999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>4</v>
       </c>
@@ -5863,10 +6728,10 @@
         <v>1147.7433166198487</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="E14" s="30"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="B15" s="30"/>
       <c r="C15" s="11"/>
       <c r="D15" s="102"/>
@@ -5874,7 +6739,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -5894,20 +6759,20 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18.75">
       <c r="A1" s="74" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="45">
       <c r="A2" s="65" t="s">
         <v>92</v>
       </c>
@@ -5927,7 +6792,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="68" t="s">
         <v>91</v>
       </c>
@@ -5943,7 +6808,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="63" t="s">
         <v>91</v>
       </c>
@@ -5965,7 +6830,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="63" t="s">
         <v>91</v>
       </c>
@@ -5987,7 +6852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="63" t="s">
         <v>91</v>
       </c>
@@ -6010,7 +6875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="71" t="s">
         <v>91</v>
       </c>
@@ -6033,7 +6898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="D8" s="17">
         <f>+SUM(D3:D7)</f>
         <v>4.6309523809523814</v>
@@ -6047,7 +6912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="D9" s="11"/>
       <c r="G9" s="11">
         <v>1E-4</v>
@@ -6057,7 +6922,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="B10" s="58" t="s">
         <v>41</v>
       </c>
@@ -6072,25 +6937,25 @@
         <v>999999999.99999988</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="G11" s="11"/>
       <c r="H11" s="110"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="113"/>
-      <c r="C12" s="114">
+    <row r="12" spans="1:9">
+      <c r="B12" s="124"/>
+      <c r="C12" s="125">
         <f>+SUM(C3:C7)</f>
         <v>9.2619047619047615E-2</v>
       </c>
       <c r="H12" s="110"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
+    <row r="13" spans="1:9">
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
       <c r="G13" s="11"/>
       <c r="H13" s="110"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="F14">
         <v>50</v>
       </c>
@@ -6106,7 +6971,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15.75">
       <c r="B15" s="60" t="s">
         <v>94</v>
       </c>
@@ -6132,10 +6997,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="H16" s="30"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8">
       <c r="B17" s="18" t="s">
         <v>104</v>
       </c>
@@ -6160,13 +7025,13 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="30">
       <c r="A1" s="7" t="s">
         <v>55</v>
       </c>
@@ -6189,7 +7054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2">
         <f>+COUNTIF($D$2:$D$28,D2)</f>
         <v>7</v>
@@ -6218,7 +7083,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3">
         <f t="shared" ref="A3:A28" si="0">+COUNTIF($D$2:$D$28,D3)</f>
         <v>6</v>
@@ -6247,7 +7112,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6265,7 +7130,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6294,7 +7159,7 @@
         <v>0.29000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6312,7 +7177,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6330,7 +7195,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6348,7 +7213,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6366,7 +7231,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6384,7 +7249,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6402,7 +7267,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6420,7 +7285,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6438,7 +7303,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6456,7 +7321,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6474,7 +7339,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6492,7 +7357,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6510,7 +7375,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6528,7 +7393,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6546,7 +7411,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6564,7 +7429,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6582,7 +7447,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6600,7 +7465,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6618,7 +7483,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6636,7 +7501,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6654,7 +7519,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6672,7 +7537,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6690,7 +7555,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6722,12 +7587,12 @@
       <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>107</v>
       </c>
@@ -6744,7 +7609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6769,7 +7634,7 @@
         <v>19.925925925925927</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6794,7 +7659,7 @@
         <v>1.6896296296296289</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6812,7 +7677,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6830,7 +7695,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6848,7 +7713,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6866,7 +7731,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6884,7 +7749,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6902,7 +7767,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6920,7 +7785,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6938,7 +7803,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6956,7 +7821,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6974,7 +7839,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6992,7 +7857,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7010,7 +7875,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7028,7 +7893,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7046,7 +7911,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7064,7 +7929,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7082,7 +7947,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7100,7 +7965,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7118,7 +7983,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7136,7 +8001,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7154,7 +8019,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7172,7 +8037,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7190,7 +8055,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7208,7 +8073,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7226,7 +8091,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7244,7 +8109,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="D30" s="3">
         <f>+SUM(D2:D28)</f>
         <v>-3.907985046680551E-14</v>
